--- a/sriramModel-nelson-atypical-patientID_21-sims-cort-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_21-sims-cort-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.110643408145365</v>
+        <v>6.109036603604557</v>
       </c>
       <c r="C2">
-        <v>6.102194961359487</v>
+        <v>6.105041196020732</v>
       </c>
       <c r="D2">
-        <v>6.10863789156101</v>
+        <v>6.108993229288232</v>
       </c>
       <c r="E2">
-        <v>6.104448237386873</v>
+        <v>6.106647627304671</v>
       </c>
       <c r="F2">
-        <v>6.1203210067864</v>
+        <v>6.107146505513852</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.120826102286374</v>
+        <v>6.116579336574933</v>
       </c>
       <c r="C3">
-        <v>6.103513974143348</v>
+        <v>6.109163211305454</v>
       </c>
       <c r="D3">
-        <v>6.117903839291156</v>
+        <v>6.116694525269441</v>
       </c>
       <c r="E3">
-        <v>6.11137294425608</v>
+        <v>6.111867676793949</v>
       </c>
       <c r="F3">
-        <v>6.139270348775077</v>
+        <v>6.113859753626056</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.130565115752256</v>
+        <v>6.122748854330177</v>
       </c>
       <c r="C4">
-        <v>6.104019211006649</v>
+        <v>6.112451135968464</v>
       </c>
       <c r="D4">
-        <v>6.127744487907338</v>
+        <v>6.123202721910443</v>
       </c>
       <c r="E4">
-        <v>6.120422434627735</v>
+        <v>6.115780900857362</v>
       </c>
       <c r="F4">
-        <v>6.156943104279549</v>
+        <v>6.120228289682283</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.139877310852495</v>
+        <v>6.127660818493274</v>
       </c>
       <c r="C5">
-        <v>6.103769949425367</v>
+        <v>6.114986761387619</v>
       </c>
       <c r="D5">
-        <v>6.138107296410647</v>
+        <v>6.12861310469205</v>
       </c>
       <c r="E5">
-        <v>6.131264815908501</v>
+        <v>6.118502963863398</v>
       </c>
       <c r="F5">
-        <v>6.173430164201195</v>
+        <v>6.126334522416597</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.148779017957185</v>
+        <v>6.13142646326728</v>
       </c>
       <c r="C6">
-        <v>6.102822766116031</v>
+        <v>6.116848889394573</v>
       </c>
       <c r="D6">
-        <v>6.14894080922086</v>
+        <v>6.133017832510976</v>
       </c>
       <c r="E6">
-        <v>6.143585449981567</v>
+        <v>6.120145072396609</v>
       </c>
       <c r="F6">
-        <v>6.188818584457683</v>
+        <v>6.132255292965974</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.157286156985193</v>
+        <v>6.134152849667363</v>
       </c>
       <c r="C7">
-        <v>6.101231905175959</v>
+        <v>6.11811331434058</v>
       </c>
       <c r="D7">
-        <v>6.160194577675345</v>
+        <v>6.136506016786469</v>
       </c>
       <c r="E7">
-        <v>6.157087431628448</v>
+        <v>6.120814069207258</v>
       </c>
       <c r="F7">
-        <v>6.203191695524601</v>
+        <v>6.138062154378512</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.16541424505503</v>
+        <v>6.135942670988118</v>
       </c>
       <c r="C8">
-        <v>6.099049122305234</v>
+        <v>6.118853015172427</v>
       </c>
       <c r="D8">
-        <v>6.171819076391151</v>
+        <v>6.139163648717216</v>
       </c>
       <c r="E8">
-        <v>6.171491250353653</v>
+        <v>6.120612372315648</v>
       </c>
       <c r="F8">
-        <v>6.216629235314081</v>
+        <v>6.143821513169297</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.173178416051506</v>
+        <v>6.136894627700436</v>
       </c>
       <c r="C9">
-        <v>6.096323776859246</v>
+        <v>6.119138269555581</v>
       </c>
       <c r="D9">
-        <v>6.183765750629234</v>
+        <v>6.141073861587529</v>
       </c>
       <c r="E9">
-        <v>6.186534387527125</v>
+        <v>6.119638375891824</v>
       </c>
       <c r="F9">
-        <v>6.229207440202913</v>
+        <v>6.149594980476872</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.180593441046446</v>
+        <v>6.137103644322007</v>
       </c>
       <c r="C10">
-        <v>6.093103034102348</v>
+        <v>6.119036728692744</v>
       </c>
       <c r="D10">
-        <v>6.195987048577718</v>
+        <v>6.142317023985394</v>
       </c>
       <c r="E10">
-        <v>6.201971175400632</v>
+        <v>6.117986608000109</v>
       </c>
       <c r="F10">
-        <v>6.240999147536063</v>
+        <v>6.155439656873174</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.187673732140764</v>
+        <v>6.136660977793523</v>
       </c>
       <c r="C11">
-        <v>6.089431973657441</v>
+        <v>6.118613517127556</v>
       </c>
       <c r="D11">
-        <v>6.208436445102644</v>
+        <v>6.14297080005091</v>
       </c>
       <c r="E11">
-        <v>6.217572708792771</v>
+        <v>6.115747832205005</v>
       </c>
       <c r="F11">
-        <v>6.252073856285208</v>
+        <v>6.161408351130977</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.194433324175796</v>
+        <v>6.135654327471469</v>
       </c>
       <c r="C12">
-        <v>6.085353663714421</v>
+        <v>6.117931334958668</v>
       </c>
       <c r="D12">
-        <v>6.221068454475815</v>
+        <v>6.143110228277166</v>
       </c>
       <c r="E12">
-        <v>6.233126786886074</v>
+        <v>6.113009171814228</v>
       </c>
       <c r="F12">
-        <v>6.262497839039038</v>
+        <v>6.167549765038097</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.200885887433949</v>
+        <v>6.134167963379277</v>
       </c>
       <c r="C13">
-        <v>6.080909206772946</v>
+        <v>6.117050548304327</v>
       </c>
       <c r="D13">
-        <v>6.233838642041437</v>
+        <v>6.142807819769774</v>
       </c>
       <c r="E13">
-        <v>6.248437929503464</v>
+        <v>6.109854271986132</v>
       </c>
       <c r="F13">
-        <v>6.272334250019884</v>
+        <v>6.173908706263193</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.207044748709043</v>
+        <v>6.13228287475552</v>
       </c>
       <c r="C14">
-        <v>6.076137821959055</v>
+        <v>6.116029270478302</v>
       </c>
       <c r="D14">
-        <v>6.246703638927618</v>
+        <v>6.142133647254037</v>
       </c>
       <c r="E14">
-        <v>6.263327440627487</v>
+        <v>6.106363443105941</v>
       </c>
       <c r="F14">
-        <v>6.281643200427008</v>
+        <v>6.180526287228453</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.212922901778395</v>
+        <v>6.13007691862543</v>
       </c>
       <c r="C15">
-        <v>6.07107694753351</v>
+        <v>6.114923445867222</v>
       </c>
       <c r="D15">
-        <v>6.259621163832362</v>
+        <v>6.14115542515818</v>
       </c>
       <c r="E15">
-        <v>6.277633533067949</v>
+        <v>6.102613792065915</v>
       </c>
       <c r="F15">
-        <v>6.290481821205201</v>
+        <v>6.18744011535163</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.218533009923529</v>
+        <v>6.127624930323249</v>
       </c>
       <c r="C16">
-        <v>6.065762311987018</v>
+        <v>6.11378692800714</v>
       </c>
       <c r="D16">
-        <v>6.272550024120976</v>
+        <v>6.139938585314416</v>
       </c>
       <c r="E16">
-        <v>6.291211476773201</v>
+        <v>6.098679345087773</v>
       </c>
       <c r="F16">
-        <v>6.298904348061709</v>
+        <v>6.194684467495772</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.2238874098159</v>
+        <v>6.124998835395044</v>
       </c>
       <c r="C17">
-        <v>6.060228008537738</v>
+        <v>6.112671534767145</v>
       </c>
       <c r="D17">
-        <v>6.285450150853454</v>
+        <v>6.138546357430788</v>
       </c>
       <c r="E17">
-        <v>6.303933731444377</v>
+        <v>6.094631161318552</v>
       </c>
       <c r="F17">
-        <v>6.306962194571761</v>
+        <v>6.202290454076948</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.228998117273163</v>
+        <v>6.122267767096381</v>
       </c>
       <c r="C18">
-        <v>6.054506546400982</v>
+        <v>6.111627152340425</v>
       </c>
       <c r="D18">
-        <v>6.298282585108407</v>
+        <v>6.137039839791649</v>
       </c>
       <c r="E18">
-        <v>6.31569004132548</v>
+        <v>6.090537475357233</v>
       </c>
       <c r="F18">
-        <v>6.314704036290594</v>
+        <v>6.210286186589563</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.233876835293374</v>
+        <v>6.119498204321766</v>
       </c>
       <c r="C19">
-        <v>6.048628931576117</v>
+        <v>6.11070180720959</v>
       </c>
       <c r="D19">
-        <v>6.311009522678443</v>
+        <v>6.135478051769453</v>
       </c>
       <c r="E19">
-        <v>6.32638742642489</v>
+        <v>6.086463727307216</v>
       </c>
       <c r="F19">
-        <v>6.322175879362658</v>
+        <v>6.218696917826885</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.238534940666743</v>
+        <v>6.11675395836493</v>
       </c>
       <c r="C20">
-        <v>6.042624725116591</v>
+        <v>6.109941720973838</v>
       </c>
       <c r="D20">
-        <v>6.323594315479945</v>
+        <v>6.133917989181315</v>
       </c>
       <c r="E20">
-        <v>6.335950009893844</v>
+        <v>6.082472809111316</v>
       </c>
       <c r="F20">
-        <v>6.329421130268944</v>
+        <v>6.227545184455766</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.242983517805096</v>
+        <v>6.114096414058413</v>
       </c>
       <c r="C21">
-        <v>6.036522101151938</v>
+        <v>6.109391376155431</v>
       </c>
       <c r="D21">
-        <v>6.33600148637517</v>
+        <v>6.132414759061602</v>
       </c>
       <c r="E21">
-        <v>6.344318609423035</v>
+        <v>6.078624913641963</v>
       </c>
       <c r="F21">
-        <v>6.336480668731099</v>
+        <v>6.236850945424082</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.247233331173176</v>
+        <v>6.111584503710606</v>
       </c>
       <c r="C22">
-        <v>6.030347907326368</v>
+        <v>6.109093576562334</v>
       </c>
       <c r="D22">
-        <v>6.34819674661548</v>
+        <v>6.131021546921036</v>
       </c>
       <c r="E22">
-        <v>6.351450044783546</v>
+        <v>6.074977954015581</v>
       </c>
       <c r="F22">
-        <v>6.343392910784146</v>
+        <v>6.246631714152423</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.251294861320869</v>
+        <v>6.109274890650513</v>
       </c>
       <c r="C23">
-        <v>6.024127740616964</v>
+        <v>6.109089503101655</v>
       </c>
       <c r="D23">
-        <v>6.360147007146863</v>
+        <v>6.129789791465073</v>
       </c>
       <c r="E23">
-        <v>6.357316132334516</v>
+        <v>6.071587412510064</v>
       </c>
       <c r="F23">
-        <v>6.350193874071423</v>
+        <v>6.256902718288591</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.255178288720891</v>
+        <v>6.107222057121809</v>
       </c>
       <c r="C24">
-        <v>6.017885918909544</v>
+        <v>6.109418777513936</v>
       </c>
       <c r="D24">
-        <v>6.371820387956482</v>
+        <v>6.128769160199139</v>
       </c>
       <c r="E24">
-        <v>6.36190237221091</v>
+        <v>6.068506608972143</v>
       </c>
       <c r="F24">
-        <v>6.356917242666194</v>
+        <v>6.26767698097161</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.258893504573691</v>
+        <v>6.105478363334787</v>
       </c>
       <c r="C25">
-        <v>6.011645683977011</v>
+        <v>6.110119516192851</v>
       </c>
       <c r="D25">
-        <v>6.38318623422507</v>
+        <v>6.128007650679129</v>
       </c>
       <c r="E25">
-        <v>6.365206383978906</v>
+        <v>6.065786662955823</v>
       </c>
       <c r="F25">
-        <v>6.363594431011124</v>
+        <v>6.278965442255969</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6.262450106695238</v>
+        <v>6.10409413030898</v>
       </c>
       <c r="C26">
-        <v>6.005428998433152</v>
+        <v>6.111228391683827</v>
       </c>
       <c r="D26">
-        <v>6.394215127624153</v>
+        <v>6.127551604499192</v>
       </c>
       <c r="E26">
-        <v>6.367236181471635</v>
+        <v>6.063476662651278</v>
       </c>
       <c r="F26">
-        <v>6.370254645679992</v>
+        <v>6.290777061454083</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6.265857406372903</v>
+        <v>6.103117741258982</v>
       </c>
       <c r="C27">
-        <v>5.999256901754092</v>
+        <v>6.112780668908236</v>
       </c>
       <c r="D27">
-        <v>6.404878900925409</v>
+        <v>6.127445788861507</v>
       </c>
       <c r="E27">
-        <v>6.368008389721342</v>
+        <v>6.061623651887595</v>
       </c>
       <c r="F27">
-        <v>6.37692494796296</v>
+        <v>6.303118921504883</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6.269124425060497</v>
+        <v>6.102595654748794</v>
       </c>
       <c r="C28">
-        <v>5.993149276411402</v>
+        <v>6.114810283281189</v>
       </c>
       <c r="D28">
-        <v>6.41515064872589</v>
+        <v>6.127733428221173</v>
       </c>
       <c r="E28">
-        <v>6.367546512699267</v>
+        <v>6.060272775488418</v>
       </c>
       <c r="F28">
-        <v>6.383630313300892</v>
+        <v>6.31599632567869</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6.272259899591355</v>
+        <v>6.102572526683026</v>
       </c>
       <c r="C29">
-        <v>5.987125111287523</v>
+        <v>6.117349845988609</v>
       </c>
       <c r="D29">
-        <v>6.425004741203406</v>
+        <v>6.128456267203639</v>
       </c>
       <c r="E29">
-        <v>6.365879334628451</v>
+        <v>6.059467309043635</v>
       </c>
       <c r="F29">
-        <v>6.390393689862345</v>
+        <v>6.329412895453822</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6.275272283974144</v>
+        <v>6.103091251856799</v>
       </c>
       <c r="C30">
-        <v>5.981202420348722</v>
+        <v>6.120430739345053</v>
       </c>
       <c r="D30">
-        <v>6.434416833307899</v>
+        <v>6.129654615433099</v>
       </c>
       <c r="E30">
-        <v>6.363039512589594</v>
+        <v>6.059248762540539</v>
       </c>
       <c r="F30">
-        <v>6.397236057067148</v>
+        <v>6.343370695530025</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6.2781697482105</v>
+        <v>6.104193056671992</v>
       </c>
       <c r="C31">
-        <v>5.975398303275902</v>
+        <v>6.124083109583486</v>
       </c>
       <c r="D31">
-        <v>6.443363878115944</v>
+        <v>6.131367397392856</v>
       </c>
       <c r="E31">
-        <v>6.359062379932221</v>
+        <v>6.05965694174709</v>
       </c>
       <c r="F31">
-        <v>6.404176483073138</v>
+        <v>6.357870192354127</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6.280960181238304</v>
+        <v>6.105917552984807</v>
       </c>
       <c r="C32">
-        <v>5.969729016443708</v>
+        <v>6.128335955813408</v>
       </c>
       <c r="D32">
-        <v>6.45182413310647</v>
+        <v>6.133632195367466</v>
       </c>
       <c r="E32">
-        <v>6.353984964396926</v>
+        <v>6.060730009818218</v>
       </c>
       <c r="F32">
-        <v>6.411232180232379</v>
+        <v>6.372910559388631</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6.283651188209458</v>
+        <v>6.108302802130265</v>
       </c>
       <c r="C33">
-        <v>5.964209932625839</v>
+        <v>6.133217133227491</v>
       </c>
       <c r="D33">
-        <v>6.459777172363096</v>
+        <v>6.136485294688995</v>
       </c>
       <c r="E33">
-        <v>6.347845204733614</v>
+        <v>6.062504565560264</v>
       </c>
       <c r="F33">
-        <v>6.418418561161994</v>
+        <v>6.388489637675304</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6.286250093049878</v>
+        <v>6.111385382729906</v>
       </c>
       <c r="C34">
-        <v>5.958855643709626</v>
+        <v>6.138753423564088</v>
       </c>
       <c r="D34">
-        <v>6.467203894210223</v>
+        <v>6.139961717685289</v>
       </c>
       <c r="E34">
-        <v>6.340681340402901</v>
+        <v>6.065015684543355</v>
       </c>
       <c r="F34">
-        <v>6.425749293803444</v>
+        <v>6.404603893581287</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6.288763933900836</v>
+        <v>6.115200435838773</v>
       </c>
       <c r="C35">
-        <v>5.953679941626654</v>
+        <v>6.144970549872697</v>
       </c>
       <c r="D35">
-        <v>6.474086528809512</v>
+        <v>6.144095272456632</v>
       </c>
       <c r="E35">
-        <v>6.332531436408945</v>
+        <v>6.068296990429774</v>
       </c>
       <c r="F35">
-        <v>6.433236354628452</v>
+        <v>6.421248656959165</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6.291199464108633</v>
+        <v>6.119781723786451</v>
       </c>
       <c r="C36">
-        <v>5.948695877384305</v>
+        <v>6.151893234387875</v>
       </c>
       <c r="D36">
-        <v>6.480408644562326</v>
+        <v>6.148918582214391</v>
       </c>
       <c r="E36">
-        <v>6.323433039296496</v>
+        <v>6.072380702891977</v>
       </c>
       <c r="F36">
-        <v>6.440890081395305</v>
+        <v>6.43841807957716</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6.293563149252252</v>
+        <v>6.125161685836738</v>
       </c>
       <c r="C37">
-        <v>5.943915783591816</v>
+        <v>6.159545214264416</v>
       </c>
       <c r="D37">
-        <v>6.48615515347611</v>
+        <v>6.154463126896037</v>
       </c>
       <c r="E37">
-        <v>6.313422931424958</v>
+        <v>6.077297688526891</v>
       </c>
       <c r="F37">
-        <v>6.448719225169754</v>
+        <v>6.456105264416625</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6.295861164138178</v>
+        <v>6.131371474299335</v>
       </c>
       <c r="C38">
-        <v>5.939351301187474</v>
+        <v>6.167949296311059</v>
       </c>
       <c r="D38">
-        <v>6.49131231477349</v>
+        <v>6.160759279939056</v>
       </c>
       <c r="E38">
-        <v>6.302536936651311</v>
+        <v>6.083077522474216</v>
       </c>
       <c r="F38">
-        <v>6.456731001941916</v>
+        <v>6.474302320742217</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6.298099391900278</v>
+        <v>6.138441020632714</v>
       </c>
       <c r="C39">
-        <v>5.935013405208162</v>
+        <v>6.177127368125142</v>
       </c>
       <c r="D39">
-        <v>6.49586773609188</v>
+        <v>6.167836338356843</v>
       </c>
       <c r="E39">
-        <v>6.290809792350418</v>
+        <v>6.089748526324586</v>
       </c>
       <c r="F39">
-        <v>6.464931141618263</v>
+        <v>6.493000414397677</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6.300283417866632</v>
+        <v>6.14639906943597</v>
       </c>
       <c r="C40">
-        <v>5.930912432031795</v>
+        <v>6.187100451724881</v>
       </c>
       <c r="D40">
-        <v>6.49981037245958</v>
+        <v>6.175722559851145</v>
       </c>
       <c r="E40">
-        <v>6.278275069094561</v>
+        <v>6.097337824841516</v>
       </c>
       <c r="F40">
-        <v>6.473323937550463</v>
+        <v>6.51218985240976</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6.302418528037301</v>
+        <v>6.155273232193398</v>
       </c>
       <c r="C41">
-        <v>5.927058088419257</v>
+        <v>6.197888712469622</v>
       </c>
       <c r="D41">
-        <v>6.503130522731719</v>
+        <v>6.184445191398105</v>
       </c>
       <c r="E41">
-        <v>6.264965114186335</v>
+        <v>6.105871386502074</v>
       </c>
       <c r="F41">
-        <v>6.481912295146537</v>
+        <v>6.531860091728036</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6.304509703405611</v>
+        <v>6.165090026900371</v>
       </c>
       <c r="C42">
-        <v>5.923459485538491</v>
+        <v>6.209511508525684</v>
       </c>
       <c r="D42">
-        <v>6.505819822911877</v>
+        <v>6.194030497175429</v>
       </c>
       <c r="E42">
-        <v>6.250911020929578</v>
+        <v>6.115374065008238</v>
       </c>
       <c r="F42">
-        <v>6.490697778332001</v>
+        <v>6.551999835553461</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6.306561612973437</v>
+        <v>6.175874915833083</v>
       </c>
       <c r="C43">
-        <v>5.920125140735738</v>
+        <v>6.221987400920152</v>
       </c>
       <c r="D43">
-        <v>6.507871235662138</v>
+        <v>6.204503792212355</v>
       </c>
       <c r="E43">
-        <v>6.236142613859067</v>
+        <v>6.125869649862772</v>
       </c>
       <c r="F43">
-        <v>6.499680655430151</v>
+        <v>6.572597035550505</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6.308578611266023</v>
+        <v>6.187652353963643</v>
       </c>
       <c r="C44">
-        <v>5.917063006799662</v>
+        <v>6.235334197083886</v>
       </c>
       <c r="D44">
-        <v>6.509279036575755</v>
+        <v>6.215889462165319</v>
       </c>
       <c r="E44">
-        <v>6.220688447378408</v>
+        <v>6.137380891094863</v>
       </c>
       <c r="F44">
-        <v>6.50885994395769</v>
+        <v>6.593638974794525</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6.310564726294397</v>
+        <v>6.200445811341269</v>
       </c>
       <c r="C45">
-        <v>5.914280478072891</v>
+        <v>6.249568961987617</v>
       </c>
       <c r="D45">
-        <v>6.510038794425858</v>
+        <v>6.228210993000664</v>
       </c>
       <c r="E45">
-        <v>6.204575811538542</v>
+        <v>6.149929550934147</v>
       </c>
       <c r="F45">
-        <v>6.518233455242435</v>
+        <v>6.615112296312264</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6.312523656288956</v>
+        <v>6.214277824627235</v>
       </c>
       <c r="C46">
-        <v>5.911784406582618</v>
+        <v>6.264708056900932</v>
       </c>
       <c r="D46">
-        <v>6.510147347364942</v>
+        <v>6.241490994271089</v>
       </c>
       <c r="E46">
-        <v>6.1878307436834</v>
+        <v>6.163536428195886</v>
       </c>
       <c r="F46">
-        <v>6.52779783530911</v>
+        <v>6.637003057251053</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6.314458757818461</v>
+        <v>6.229170016970463</v>
       </c>
       <c r="C47">
-        <v>5.909581114721022</v>
+        <v>6.280767149724667</v>
       </c>
       <c r="D47">
-        <v>6.509602773525115</v>
+        <v>6.255751217486605</v>
       </c>
       <c r="E47">
-        <v>6.170478043606675</v>
+        <v>6.178221397943667</v>
       </c>
       <c r="F47">
-        <v>6.537548606505753</v>
+        <v>6.659296773138285</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6.316373036421397</v>
+        <v>6.245143140699048</v>
       </c>
       <c r="C48">
-        <v>5.907676395638848</v>
+        <v>6.297761252548979</v>
       </c>
       <c r="D48">
-        <v>6.508404355839827</v>
+        <v>6.271012581880512</v>
       </c>
       <c r="E48">
-        <v>6.152541291391057</v>
+        <v>6.194003444270204</v>
       </c>
       <c r="F48">
-        <v>6.54748020790968</v>
+        <v>6.681978447300347</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6.318269138404795</v>
+        <v>6.26221710360344</v>
       </c>
       <c r="C49">
-        <v>5.906075532473938</v>
+        <v>6.315704727401495</v>
       </c>
       <c r="D49">
-        <v>6.506552540873705</v>
+        <v>6.287295187649533</v>
       </c>
       <c r="E49">
-        <v>6.134042866444521</v>
+        <v>6.210900683894155</v>
       </c>
       <c r="F49">
-        <v>6.557586032994783</v>
+        <v>6.705032626223008</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6.320149333282354</v>
+        <v>6.280410995905982</v>
       </c>
       <c r="C50">
-        <v>5.90478328018972</v>
+        <v>6.334611315056059</v>
       </c>
       <c r="D50">
-        <v>6.504048891320515</v>
+        <v>6.304618332092734</v>
       </c>
       <c r="E50">
-        <v>6.115003967402634</v>
+        <v>6.228930404824456</v>
       </c>
       <c r="F50">
-        <v>6.567858466301635</v>
+        <v>6.728443418310518</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6.322015508736818</v>
+        <v>6.299743126621701</v>
       </c>
       <c r="C51">
-        <v>5.90380389393032</v>
+        <v>6.35449415177083</v>
       </c>
       <c r="D51">
-        <v>6.50089603529306</v>
+        <v>6.323000529578831</v>
       </c>
       <c r="E51">
-        <v>6.095444632184113</v>
+        <v>6.248109081476485</v>
       </c>
       <c r="F51">
-        <v>6.578288918737415</v>
+        <v>6.752194543371128</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6.323869144384146</v>
+        <v>6.320231035942983</v>
       </c>
       <c r="C52">
-        <v>5.903141105096563</v>
+        <v>6.375365788116786</v>
       </c>
       <c r="D52">
-        <v>6.497097602320908</v>
+        <v>6.342459513170702</v>
       </c>
       <c r="E52">
-        <v>6.075383758864652</v>
+        <v>6.268452407390652</v>
       </c>
       <c r="F52">
-        <v>6.588867863550925</v>
+        <v>6.77626935672247</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6.325744796594044</v>
+        <v>6.341891532549361</v>
       </c>
       <c r="C53">
-        <v>5.902859413627149</v>
+        <v>6.397238203933946</v>
       </c>
       <c r="D53">
-        <v>6.492725937836243</v>
+        <v>6.363012251111295</v>
       </c>
       <c r="E53">
-        <v>6.054996518827378</v>
+        <v>6.289975314071675</v>
       </c>
       <c r="F53">
-        <v>6.599627950383305</v>
+        <v>6.800650885192892</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6.327807859531548</v>
+        <v>6.364740703683663</v>
       </c>
       <c r="C54">
-        <v>5.903261730414011</v>
+        <v>6.420122825144064</v>
       </c>
       <c r="D54">
-        <v>6.488108071033811</v>
+        <v>6.384674948808719</v>
       </c>
       <c r="E54">
-        <v>6.035024620334721</v>
+        <v>6.312691987021775</v>
       </c>
       <c r="F54">
-        <v>6.610764879378984</v>
+        <v>6.825321861809676</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6.330249861915143</v>
+        <v>6.388793942858289</v>
       </c>
       <c r="C55">
-        <v>5.904695772184682</v>
+        <v>6.444030533281754</v>
       </c>
       <c r="D55">
-        <v>6.483600361413629</v>
+        <v>6.407463045772976</v>
       </c>
       <c r="E55">
-        <v>6.016241038827595</v>
+        <v>6.336615894301123</v>
       </c>
       <c r="F55">
-        <v>6.622500080057495</v>
+        <v>6.850264748634168</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6.333254287663442</v>
+        <v>6.414065965328639</v>
       </c>
       <c r="C56">
-        <v>5.907491854875039</v>
+        <v>6.468971675168862</v>
       </c>
       <c r="D56">
-        <v>6.479525778327661</v>
+        <v>6.431391224258975</v>
       </c>
       <c r="E56">
-        <v>5.999326304392091</v>
+        <v>6.361759786536612</v>
       </c>
       <c r="F56">
-        <v>6.635035528843658</v>
+        <v>6.875461775163433</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6.33699656023015</v>
+        <v>6.440570817538898</v>
       </c>
       <c r="C57">
-        <v>5.911963461783863</v>
+        <v>6.494956074063664</v>
       </c>
       <c r="D57">
-        <v>6.476177883929712</v>
+        <v>6.456473387598271</v>
       </c>
       <c r="E57">
-        <v>5.984886552147791</v>
+        <v>6.38813572557335</v>
       </c>
       <c r="F57">
-        <v>6.648554864081077</v>
+        <v>6.900894956607317</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6.341643884804358</v>
+        <v>6.468321904559824</v>
       </c>
       <c r="C58">
-        <v>5.918407891165728</v>
+        <v>6.521993033030456</v>
       </c>
       <c r="D58">
-        <v>6.473823016174904</v>
+        <v>6.482722651899217</v>
       </c>
       <c r="E58">
-        <v>5.973461346308917</v>
+        <v>6.415755076748114</v>
       </c>
       <c r="F58">
-        <v>6.663223948621769</v>
+        <v>6.926546128685974</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6.347355036557335</v>
+        <v>6.497331982117707</v>
       </c>
       <c r="C59">
-        <v>5.927106579079616</v>
+        <v>6.550091334485199</v>
       </c>
       <c r="D59">
-        <v>6.472701793252738</v>
+        <v>6.510151331438651</v>
       </c>
       <c r="E59">
-        <v>5.965527753223565</v>
+        <v>6.444628520575497</v>
       </c>
       <c r="F59">
-        <v>6.679191416236653</v>
+        <v>6.952396966942418</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6.354280089102666</v>
+        <v>6.527613169064389</v>
       </c>
       <c r="C60">
-        <v>5.938325388066936</v>
+        <v>6.579259243413888</v>
       </c>
       <c r="D60">
-        <v>6.473030275065698</v>
+        <v>6.538770888584813</v>
       </c>
       <c r="E60">
-        <v>5.961502664943351</v>
+        <v>6.474766051931307</v>
       </c>
       <c r="F60">
-        <v>6.696589157498006</v>
+        <v>6.978429013631111</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6.362560089620149</v>
+        <v>6.559176947773669</v>
       </c>
       <c r="C61">
-        <v>5.952314733414789</v>
+        <v>6.609504488527593</v>
       </c>
       <c r="D61">
-        <v>6.475000911234162</v>
+        <v>6.568591927301653</v>
       </c>
       <c r="E61">
-        <v>5.961744210027337</v>
+        <v>6.506176975439533</v>
       </c>
       <c r="F61">
-        <v>6.715532889287513</v>
+        <v>7.004623702571033</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6.372326657242123</v>
+        <v>6.592034160859384</v>
       </c>
       <c r="C62">
-        <v>5.969309563224476</v>
+        <v>6.640834250176115</v>
       </c>
       <c r="D62">
-        <v>6.478783339412015</v>
+        <v>6.599624099772609</v>
       </c>
       <c r="E62">
-        <v>5.96655267672498</v>
+        <v>6.538869894131301</v>
       </c>
       <c r="F62">
-        <v>6.736122613832031</v>
+        <v>7.030962376411275</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6.383701538754489</v>
+        <v>6.626194996930109</v>
       </c>
       <c r="C63">
-        <v>5.989529200497483</v>
+        <v>6.673255136232656</v>
       </c>
       <c r="D63">
-        <v>6.484525061385912</v>
+        <v>6.63187605264581</v>
       </c>
       <c r="E63">
-        <v>5.976171198872184</v>
+        <v>6.572852686962416</v>
       </c>
       <c r="F63">
-        <v>6.758443012186072</v>
+        <v>7.057426314464463</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6.396796085999271</v>
+        <v>6.661668974923588</v>
       </c>
       <c r="C64">
-        <v>6.013176998244457</v>
+        <v>6.706773145103831</v>
       </c>
       <c r="D64">
-        <v>6.492352018957915</v>
+        <v>6.665355337559851</v>
       </c>
       <c r="E64">
-        <v>5.990786374943234</v>
+        <v>6.608132479028759</v>
       </c>
       <c r="F64">
-        <v>6.782563846539954</v>
+        <v>7.083996742794153</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6.411710667019199</v>
+        <v>6.698464910571565</v>
       </c>
       <c r="C65">
-        <v>6.040439780020113</v>
+        <v>6.741393612639262</v>
       </c>
       <c r="D65">
-        <v>6.502369071916741</v>
+        <v>6.700068298568618</v>
       </c>
       <c r="E65">
-        <v>6.010528936889853</v>
+        <v>6.644715598449218</v>
       </c>
       <c r="F65">
-        <v>6.808540351958372</v>
+        <v>7.110654875465192</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6.4285339959273</v>
+        <v>6.736590877473953</v>
       </c>
       <c r="C66">
-        <v>6.071487031375585</v>
+        <v>6.777121139622895</v>
       </c>
       <c r="D66">
-        <v>6.514660388307178</v>
+        <v>6.73601992684168</v>
       </c>
       <c r="E66">
-        <v>6.035474584080239</v>
+        <v>6.682607519444375</v>
       </c>
       <c r="F66">
-        <v>6.836413582715372</v>
+        <v>7.137381907173006</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6.447342375643421</v>
+        <v>6.776054141153542</v>
       </c>
       <c r="C67">
-        <v>6.106469795847976</v>
+        <v>6.813959494214504</v>
       </c>
       <c r="D67">
-        <v>6.529289755843506</v>
+        <v>6.773213684937976</v>
       </c>
       <c r="E67">
-        <v>6.065645057890571</v>
+        <v>6.721812785508549</v>
       </c>
       <c r="F67">
-        <v>6.86621072369956</v>
+        <v>7.164159049662397</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6.468198857415313</v>
+        <v>6.816861077722945</v>
       </c>
       <c r="C68">
-        <v>6.145519213856227</v>
+        <v>6.851911481243099</v>
       </c>
       <c r="D68">
-        <v>6.546300813914779</v>
+        <v>6.811651274092087</v>
       </c>
       <c r="E68">
-        <v>6.101009523856396</v>
+        <v>6.762334902916184</v>
       </c>
       <c r="F68">
-        <v>6.897945378856787</v>
+        <v>7.190967567235494</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6.491152316014366</v>
+        <v>6.859017060945416</v>
       </c>
       <c r="C69">
-        <v>6.188744635000901</v>
+        <v>6.890978768145915</v>
       </c>
       <c r="D69">
-        <v>6.565717216120569</v>
+        <v>6.851332357711081</v>
       </c>
       <c r="E69">
-        <v>6.141486332690204</v>
+        <v>6.804176207467822</v>
       </c>
       <c r="F69">
-        <v>6.931617844507412</v>
+        <v>7.217788717303153</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6.516236443714935</v>
+        <v>6.902526325605782</v>
       </c>
       <c r="C70">
-        <v>6.236231226762421</v>
+        <v>6.931161655022535</v>
       </c>
       <c r="D70">
-        <v>6.587542751155899</v>
+        <v>6.892254216550323</v>
       </c>
       <c r="E70">
-        <v>6.186945200135608</v>
+        <v>6.847337694012913</v>
       </c>
       <c r="F70">
-        <v>6.967215359081859</v>
+        <v>7.244603874108915</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6.543468667914031</v>
+        <v>6.947391734795781</v>
       </c>
       <c r="C71">
-        <v>6.288036992333009</v>
+        <v>6.972458773199238</v>
       </c>
       <c r="D71">
-        <v>6.611761416781002</v>
+        <v>6.934411324538567</v>
       </c>
       <c r="E71">
-        <v>6.237209849983874</v>
+        <v>6.891818754007501</v>
       </c>
       <c r="F71">
-        <v>7.004712322074077</v>
+        <v>7.271394472472105</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6.572849018462776</v>
+        <v>6.993614517594906</v>
       </c>
       <c r="C72">
-        <v>6.344189115556254</v>
+        <v>7.014866702771684</v>
       </c>
       <c r="D72">
-        <v>6.638337480920942</v>
+        <v>6.977794831183544</v>
       </c>
       <c r="E72">
-        <v>6.292061112438604</v>
+        <v>6.937616884831374</v>
       </c>
       <c r="F72">
-        <v>7.044070502742243</v>
+        <v>7.298142013372323</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6.604358984316245</v>
+        <v>7.041193909793514</v>
       </c>
       <c r="C73">
-        <v>6.404679548816582</v>
+        <v>7.058379450405713</v>
       </c>
       <c r="D73">
-        <v>6.667215615251874</v>
+        <v>7.022391929608164</v>
       </c>
       <c r="E73">
-        <v>6.351240451528143</v>
+        <v>6.984727293618831</v>
       </c>
       <c r="F73">
-        <v>7.085239239804664</v>
+        <v>7.324828142203625</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6.637960410015388</v>
+        <v>7.090126659545487</v>
       </c>
       <c r="C74">
-        <v>6.469459821705641</v>
+        <v>7.102987794653951</v>
       </c>
       <c r="D74">
-        <v>6.698321155335041</v>
+        <v>7.068185160870117</v>
       </c>
       <c r="E74">
-        <v>6.414454023197663</v>
+        <v>7.03314236541494</v>
       </c>
       <c r="F74">
-        <v>7.128155641837108</v>
+        <v>7.351434599636255</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6.67359450076986</v>
+        <v>7.140406362141205</v>
       </c>
       <c r="C75">
-        <v>6.538435108230375</v>
+        <v>7.148678485069564</v>
       </c>
       <c r="D75">
-        <v>6.73156054570143</v>
+        <v>7.115151428234952</v>
       </c>
       <c r="E75">
-        <v>6.481377119879114</v>
+        <v>7.082850982155702</v>
       </c>
       <c r="F75">
-        <v>7.172744792814495</v>
+        <v>7.377943263504302</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6.711181074009471</v>
+        <v>7.192022573600595</v>
       </c>
       <c r="C76">
-        <v>6.611457696686399</v>
+        <v>7.19543320819712</v>
       </c>
       <c r="D76">
-        <v>6.766822124325053</v>
+        <v>7.163261024054997</v>
       </c>
       <c r="E76">
-        <v>6.55165892077346</v>
+        <v>7.133837642392285</v>
       </c>
       <c r="F76">
-        <v>7.218919987518723</v>
+        <v>7.404336169207707</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6.750618158975502</v>
+        <v>7.244959627280357</v>
       </c>
       <c r="C77">
-        <v>6.688320233955074</v>
+        <v>7.243227320103832</v>
       </c>
       <c r="D77">
-        <v>6.803977345997559</v>
+        <v>7.212476479783923</v>
       </c>
       <c r="E77">
-        <v>6.624927503069263</v>
+        <v>7.186081336388427</v>
       </c>
       <c r="F77">
-        <v>7.266583004091648</v>
+        <v>7.430595487431471</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6.791782087782682</v>
+        <v>7.299195062227573</v>
       </c>
       <c r="C78">
-        <v>6.768749390742435</v>
+        <v>7.29202832702869</v>
       </c>
       <c r="D78">
-        <v>6.842882531002001</v>
+        <v>7.262751265122025</v>
       </c>
       <c r="E78">
-        <v>6.700795064879991</v>
+        <v>7.239554124456453</v>
       </c>
       <c r="F78">
-        <v>7.315624439649498</v>
+        <v>7.456703579739691</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6.834528269148007</v>
+        <v>7.354697583505729</v>
       </c>
       <c r="C79">
-        <v>6.852400844870193</v>
+        <v>7.341794079676083</v>
       </c>
       <c r="D79">
-        <v>6.883381182021555</v>
+        <v>7.314028382741801</v>
       </c>
       <c r="E79">
-        <v>6.778863202910633</v>
+        <v>7.294219388179883</v>
       </c>
       <c r="F79">
-        <v>7.365924141071144</v>
+        <v>7.482642980911765</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6.87869277252485</v>
+        <v>7.411424411595596</v>
       </c>
       <c r="C80">
-        <v>6.938856881409088</v>
+        <v>7.392470739246717</v>
       </c>
       <c r="D80">
-        <v>6.925306833106112</v>
+        <v>7.36623893790499</v>
       </c>
       <c r="E80">
-        <v>6.858728136265834</v>
+        <v>7.350029651697454</v>
       </c>
       <c r="F80">
-        <v>7.417351762631347</v>
+        <v>7.508396407979329</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6.924094796312493</v>
+        <v>7.469317829697546</v>
       </c>
       <c r="C81">
-        <v>7.027628036573366</v>
+        <v>7.443990523621525</v>
       </c>
       <c r="D81">
-        <v>6.96848619521806</v>
+        <v>7.419300750667563</v>
       </c>
       <c r="E81">
-        <v>6.939985774447401</v>
+        <v>7.406924105814918</v>
       </c>
       <c r="F81">
-        <v>7.469767489866896</v>
+        <v>7.533946797062425</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6.970540050018361</v>
+        <v>7.528301183547356</v>
       </c>
       <c r="C82">
-        <v>7.118160099955963</v>
+        <v>7.496269377127015</v>
       </c>
       <c r="D82">
-        <v>7.012742460308801</v>
+        <v>7.473117107733093</v>
       </c>
       <c r="E82">
-        <v>7.022236532438398</v>
+        <v>7.464825798665758</v>
       </c>
       <c r="F82">
-        <v>7.523022967636494</v>
+        <v>7.559277275306655</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7.017824902467745</v>
+        <v>7.588274089564185</v>
       </c>
       <c r="C83">
-        <v>7.20984726825536</v>
+        <v>7.549204757763616</v>
       </c>
       <c r="D83">
-        <v>7.05789844348773</v>
+        <v>7.527575798768777</v>
       </c>
       <c r="E83">
-        <v>7.105089778946948</v>
+        <v>7.523638597726706</v>
       </c>
       <c r="F83">
-        <v>7.576962466434881</v>
+        <v>7.584371195859753</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7.065741082155137</v>
+        <v>7.649107216784484</v>
       </c>
       <c r="C84">
-        <v>7.302051261152912</v>
+        <v>7.602673790342682</v>
       </c>
       <c r="D84">
-        <v>7.103779397215081</v>
+        <v>7.582548595915362</v>
       </c>
       <c r="E84">
-        <v>7.188167844146789</v>
+        <v>7.583244217203774</v>
       </c>
       <c r="F84">
-        <v>7.631424313129921</v>
+        <v>7.609212147969567</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7.114080590829915</v>
+        <v>7.710637192075875</v>
       </c>
       <c r="C85">
-        <v>7.394124909998244</v>
+        <v>7.656532117195714</v>
       </c>
       <c r="D85">
-        <v>7.150215342683315</v>
+        <v>7.637891339841934</v>
       </c>
       <c r="E85">
-        <v>7.271109517935656</v>
+        <v>7.643499597680211</v>
       </c>
       <c r="F85">
-        <v>7.686242563038268</v>
+        <v>7.633783934525134</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7.16263733934781</v>
+        <v>7.772662470254231</v>
       </c>
       <c r="C86">
-        <v>7.485429864681469</v>
+        <v>7.710613909201035</v>
       </c>
       <c r="D86">
-        <v>7.197034401921295</v>
+        <v>7.693444766923808</v>
       </c>
       <c r="E86">
-        <v>7.353556167930209</v>
+        <v>7.70423507755854</v>
       </c>
       <c r="F86">
-        <v>7.741242138768835</v>
+        <v>7.658070622517331</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7.211204557777937</v>
+        <v>7.834941445542952</v>
       </c>
       <c r="C87">
-        <v>7.575345609637032</v>
+        <v>7.764733208341175</v>
       </c>
       <c r="D87">
-        <v>7.244043177683928</v>
+        <v>7.749036145962407</v>
       </c>
       <c r="E87">
-        <v>7.435112758859781</v>
+        <v>7.765253851237093</v>
       </c>
       <c r="F87">
-        <v>7.796226356388321</v>
+        <v>7.682056520484339</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7.259590015661331</v>
+        <v>7.897193895187841</v>
       </c>
       <c r="C88">
-        <v>7.663320255235752</v>
+        <v>7.818686896152448</v>
       </c>
       <c r="D88">
-        <v>7.291056741840977</v>
+        <v>7.804481805780462</v>
       </c>
       <c r="E88">
-        <v>7.515411424631214</v>
+        <v>7.826333146781557</v>
       </c>
       <c r="F88">
-        <v>7.850999826224795</v>
+        <v>7.705726186145503</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7.307621387568831</v>
+        <v>7.959106898547131</v>
       </c>
       <c r="C89">
-        <v>7.748888030713542</v>
+        <v>7.872259325067934</v>
       </c>
       <c r="D89">
-        <v>7.337907733650958</v>
+        <v>7.859590422298586</v>
       </c>
       <c r="E89">
-        <v>7.594130495220485</v>
+        <v>7.887227508151263</v>
       </c>
       <c r="F89">
-        <v>7.905378690372715</v>
+        <v>7.72906445534053</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7.355146353154661</v>
+        <v>8.020345425889332</v>
       </c>
       <c r="C90">
-        <v>7.831670637083808</v>
+        <v>7.925228261134803</v>
       </c>
       <c r="D90">
-        <v>7.384445322833455</v>
+        <v>7.91416690074433</v>
       </c>
       <c r="E90">
-        <v>7.670990280256419</v>
+        <v>7.94767417570952</v>
       </c>
       <c r="F90">
-        <v>7.959191295416564</v>
+        <v>7.752056419679631</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7.402032267076643</v>
+        <v>8.080566666941799</v>
       </c>
       <c r="C91">
-        <v>7.911373723238472</v>
+        <v>7.977371652178407</v>
       </c>
       <c r="D91">
-        <v>7.430533981066208</v>
+        <v>7.968016698057979</v>
       </c>
       <c r="E91">
-        <v>7.745750864849282</v>
+        <v>8.007400331635559</v>
       </c>
       <c r="F91">
-        <v>8.012278957084845</v>
+        <v>7.774687452463153</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7.448165174623303</v>
+        <v>8.139436121155818</v>
       </c>
       <c r="C92">
-        <v>7.987779483949487</v>
+        <v>8.028474513803033</v>
       </c>
       <c r="D92">
-        <v>7.476052364474998</v>
+        <v>8.02095002352236</v>
       </c>
       <c r="E92">
-        <v>7.818209212466307</v>
+        <v>8.066131593460744</v>
       </c>
       <c r="F92">
-        <v>8.064496560680531</v>
+        <v>7.79694321155426</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7.4934484529389</v>
+        <v>8.19664291718237</v>
       </c>
       <c r="C93">
-        <v>8.060737377696393</v>
+        <v>8.078335237277555</v>
       </c>
       <c r="D93">
-        <v>7.520892336882934</v>
+        <v>8.072785857922387</v>
       </c>
       <c r="E93">
-        <v>7.888196259608535</v>
+        <v>8.123600849686714</v>
       </c>
       <c r="F93">
-        <v>8.115712828933608</v>
+        <v>7.818809626024747</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7.537801269842523</v>
+        <v>8.251912089178139</v>
       </c>
       <c r="C94">
-        <v>8.13015399309845</v>
+        <v>8.126770724732344</v>
       </c>
       <c r="D94">
-        <v>7.564957884293929</v>
+        <v>8.123355509844224</v>
       </c>
       <c r="E94">
-        <v>7.955574048736968</v>
+        <v>8.179556553217678</v>
       </c>
       <c r="F94">
-        <v>8.165810246769489</v>
+        <v>7.840272930839709</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7.581157115878432</v>
+        <v>8.305012423448806</v>
       </c>
       <c r="C95">
-        <v>8.195982914993305</v>
+        <v>8.17361999608128</v>
       </c>
       <c r="D95">
-        <v>7.608164037243451</v>
+        <v>8.172505350231233</v>
       </c>
       <c r="E95">
-        <v>8.020233187595617</v>
+        <v>8.233769628605261</v>
       </c>
       <c r="F95">
-        <v>8.214684784350926</v>
+        <v>7.86131964819972</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7.623461868930241</v>
+        <v>8.355759696052619</v>
       </c>
       <c r="C96">
-        <v>8.258215585374627</v>
+        <v>8.218746188580567</v>
       </c>
       <c r="D96">
-        <v>7.650436014555944</v>
+        <v>8.220098755304992</v>
       </c>
       <c r="E96">
-        <v>8.082089971621299</v>
+        <v>8.286038522322606</v>
       </c>
       <c r="F96">
-        <v>8.262245405418723</v>
+        <v>7.881936593467236</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7.664672316878494</v>
+        <v>8.404015888649406</v>
       </c>
       <c r="C97">
-        <v>8.316873372109777</v>
+        <v>8.26203708234736</v>
       </c>
       <c r="D97">
-        <v>7.691708373602091</v>
+        <v>8.266017232145586</v>
       </c>
       <c r="E97">
-        <v>8.141083565546298</v>
+        <v>8.336192144760144</v>
       </c>
       <c r="F97">
-        <v>8.308413392625148</v>
+        <v>7.9021108962001</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7.704754701287482</v>
+        <v>8.44968560967355</v>
       </c>
       <c r="C98">
-        <v>8.372000715231536</v>
+        <v>8.303404369348707</v>
       </c>
       <c r="D98">
-        <v>7.731924172563441</v>
+        <v>8.310160758194671</v>
       </c>
       <c r="E98">
-        <v>8.197173652380766</v>
+        <v>8.384090889463</v>
       </c>
       <c r="F98">
-        <v>8.353121566067429</v>
+        <v>7.921829977587423</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7.743683422303752</v>
+        <v>8.49271088370247</v>
       </c>
       <c r="C99">
-        <v>8.423659494061029</v>
+        <v>8.342782064910528</v>
       </c>
       <c r="D99">
-        <v>7.771034214053189</v>
+        <v>8.352447460085603</v>
       </c>
       <c r="E99">
-        <v>8.25033821038436</v>
+        <v>8.429625988860469</v>
       </c>
       <c r="F99">
-        <v>8.396313462382242</v>
+        <v>7.941081574906678</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7.781439768762502</v>
+        <v>8.533065308051906</v>
       </c>
       <c r="C100">
-        <v>8.471924444740452</v>
+        <v>8.380124379706116</v>
       </c>
       <c r="D100">
-        <v>7.808996353418251</v>
+        <v>8.392812788777876</v>
       </c>
       <c r="E100">
-        <v>8.300571329448665</v>
+        <v>8.472717649395094</v>
       </c>
       <c r="F100">
-        <v>8.43794250066675</v>
+        <v>7.959853738206863</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7.818010895078962</v>
+        <v>8.570748300788873</v>
       </c>
       <c r="C101">
-        <v>8.516879572744081</v>
+        <v>8.415403301994475</v>
       </c>
       <c r="D101">
-        <v>7.845774869694462</v>
+        <v>8.431208334156466</v>
       </c>
       <c r="E101">
-        <v>8.347881097621185</v>
+        <v>8.513312415272271</v>
       </c>
       <c r="F101">
-        <v>8.477971115928279</v>
+        <v>7.978134818915436</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7.853388964644934</v>
+        <v>8.605779799195856</v>
       </c>
       <c r="C102">
-        <v>8.558615221649944</v>
+        <v>8.448606138724085</v>
       </c>
       <c r="D102">
-        <v>7.881339887958025</v>
+        <v>8.467600400886887</v>
       </c>
       <c r="E102">
-        <v>8.392287732026764</v>
+        <v>8.551380097167142</v>
       </c>
       <c r="F102">
-        <v>8.51636992114954</v>
+        <v>7.995913496982039</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7.887570369338954</v>
+        <v>8.638195694810356</v>
       </c>
       <c r="C103">
-        <v>8.59722585036762</v>
+        <v>8.479733128490672</v>
       </c>
       <c r="D103">
-        <v>7.915666843347589</v>
+        <v>8.501968472856245</v>
       </c>
       <c r="E103">
-        <v>8.433821909751551</v>
+        <v>8.586910577101282</v>
       </c>
       <c r="F103">
-        <v>8.553116917250049</v>
+        <v>8.013178762804719</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7.920554980329936</v>
+        <v>8.66804393321647</v>
       </c>
       <c r="C104">
-        <v>8.632808282505961</v>
+        <v>8.508795260320078</v>
       </c>
       <c r="D104">
-        <v>7.948735991617787</v>
+        <v>8.534303651482956</v>
       </c>
       <c r="E104">
-        <v>8.472523227732648</v>
+        <v>8.619910705393282</v>
       </c>
       <c r="F104">
-        <v>8.588196747509304</v>
+        <v>8.029919922243332</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7.952345629378429</v>
+        <v>8.695381342821952</v>
       </c>
       <c r="C105">
-        <v>8.665460368395907</v>
+        <v>8.535812324091212</v>
       </c>
       <c r="D105">
-        <v>7.98053195226474</v>
+        <v>8.564607132337713</v>
       </c>
       <c r="E105">
-        <v>8.50843879031007</v>
+        <v>8.650401416927508</v>
       </c>
       <c r="F105">
-        <v>8.62159999753254</v>
+        <v>8.046126610180675</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7.982947642010275</v>
+        <v>8.720271132317128</v>
       </c>
       <c r="C106">
-        <v>8.695279953060842</v>
+        <v>8.560811179790628</v>
       </c>
       <c r="D106">
-        <v>8.011043298980216</v>
+        <v>8.592888768349912</v>
       </c>
       <c r="E106">
-        <v>8.541621947738047</v>
+        <v>8.678415110350997</v>
       </c>
       <c r="F106">
-        <v>8.653322547328099</v>
+        <v>8.061788771045256</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>8.012368413390096</v>
+        <v>8.742780887513703</v>
       </c>
       <c r="C107">
-        <v>8.72236410765462</v>
+        <v>8.583824291878651</v>
       </c>
       <c r="D107">
-        <v>8.040262185356317</v>
+        <v>8.619165748040363</v>
       </c>
       <c r="E107">
-        <v>8.572131177463712</v>
+        <v>8.703993375511553</v>
       </c>
       <c r="F107">
-        <v>8.683364978512019</v>
+        <v>8.076896678731181</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>8.040617035740619</v>
+        <v>8.762980954845647</v>
       </c>
       <c r="C108">
-        <v>8.746808546657222</v>
+        <v>8.604888507930928</v>
       </c>
       <c r="D108">
-        <v>8.068184004513061</v>
+        <v>8.643461394342667</v>
       </c>
       <c r="E108">
-        <v>8.600029095534236</v>
+        <v>8.727185016870012</v>
       </c>
       <c r="F108">
-        <v>8.711732030772223</v>
+        <v>8.091440929431339</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>8.067704000705103</v>
+        <v>8.780943210247246</v>
       </c>
       <c r="C109">
-        <v>8.768707201787379</v>
+        <v>8.624044000029331</v>
       </c>
       <c r="D109">
-        <v>8.094807067674207</v>
+        <v>8.665804087396932</v>
       </c>
       <c r="E109">
-        <v>8.625381569408074</v>
+        <v>8.748044328968108</v>
       </c>
       <c r="F109">
-        <v>8.738432109687999</v>
+        <v>8.105412432975625</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>8.093640959517982</v>
+        <v>8.796740129832923</v>
       </c>
       <c r="C110">
-        <v>8.788151910907647</v>
+        <v>8.641333413689191</v>
       </c>
       <c r="D110">
-        <v>8.12013231724308</v>
+        <v>8.686226327169322</v>
       </c>
       <c r="E110">
-        <v>8.648256937811761</v>
+        <v>8.7666297101522</v>
       </c>
       <c r="F110">
-        <v>8.763476838872197</v>
+        <v>8.118802432256059</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>8.118440515633152</v>
+        <v>8.810444076254473</v>
       </c>
       <c r="C111">
-        <v>8.805232200927643</v>
+        <v>8.656801153706843</v>
       </c>
       <c r="D111">
-        <v>8.14416306534285</v>
+        <v>8.704763927425851</v>
       </c>
       <c r="E111">
-        <v>8.66872533299043</v>
+        <v>8.78300253808302</v>
       </c>
       <c r="F111">
-        <v>8.786880656622031</v>
+        <v>8.131602486436929</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>8.142116042689004</v>
+        <v>8.822126737428226</v>
       </c>
       <c r="C112">
-        <v>8.820035143866766</v>
+        <v>8.670492785765797</v>
       </c>
       <c r="D112">
-        <v>8.166904756465849</v>
+        <v>8.721455301810998</v>
       </c>
       <c r="E112">
-        <v>8.686858086903461</v>
+        <v>8.797226194084836</v>
       </c>
       <c r="F112">
-        <v>8.808660453177442</v>
+        <v>8.143804474770592</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>8.164681527196125</v>
+        <v>8.831858718283437</v>
       </c>
       <c r="C113">
-        <v>8.832645257206982</v>
+        <v>8.682454575280099</v>
       </c>
       <c r="D113">
-        <v>8.188364745797578</v>
+        <v>8.736340850573463</v>
       </c>
       <c r="E113">
-        <v>8.702727221194193</v>
+        <v>8.809365243716222</v>
       </c>
       <c r="F113">
-        <v>8.828835234775475</v>
+        <v>8.155400604777819</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>8.186151437398896</v>
+        <v>8.839709257339194</v>
       </c>
       <c r="C114">
-        <v>8.84314444571655</v>
+        <v>8.692733101330591</v>
       </c>
       <c r="D114">
-        <v>8.20855209753485</v>
+        <v>8.749462444715627</v>
       </c>
       <c r="E114">
-        <v>8.716405001094811</v>
+        <v>8.819484788920615</v>
       </c>
       <c r="F114">
-        <v>8.847425831332481</v>
+        <v>8.166383394376876</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>8.206540620339215</v>
+        <v>8.845746006300251</v>
       </c>
       <c r="C115">
-        <v>8.851611996219095</v>
+        <v>8.701374950363078</v>
       </c>
       <c r="D115">
-        <v>8.227477401054005</v>
+        <v>8.760862990290549</v>
       </c>
       <c r="E115">
-        <v>8.727963562599907</v>
+        <v>8.827649962071545</v>
       </c>
       <c r="F115">
-        <v>8.864454625105953</v>
+        <v>8.176745688535947</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>8.225864211262943</v>
+        <v>8.850034873204006</v>
       </c>
       <c r="C116">
-        <v>8.858124589066824</v>
+        <v>8.708426464944361</v>
       </c>
       <c r="D116">
-        <v>8.245152603216875</v>
+        <v>8.770586057442625</v>
       </c>
       <c r="E116">
-        <v>8.737474592942444</v>
+        <v>8.833925518208627</v>
       </c>
       <c r="F116">
-        <v>8.879945336033218</v>
+        <v>8.186480649305162</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>8.244137554865821</v>
+        <v>8.852639923580632</v>
       </c>
       <c r="C117">
-        <v>8.862756314807726</v>
+        <v>8.713933547583776</v>
       </c>
       <c r="D117">
-        <v>8.261590855836882</v>
+        <v>8.778675567672254</v>
       </c>
       <c r="E117">
-        <v>8.745009052290555</v>
+        <v>8.838375502342297</v>
       </c>
       <c r="F117">
-        <v>8.893922801761322</v>
+        <v>8.195581749590781</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>8.261376137779632</v>
+        <v>8.853623319173471</v>
       </c>
       <c r="C118">
-        <v>8.865578701974323</v>
+        <v>8.717941507628248</v>
       </c>
       <c r="D118">
-        <v>8.276806374121509</v>
+        <v>8.785175534369658</v>
       </c>
       <c r="E118">
-        <v>8.750636954054521</v>
+        <v>8.841062986916253</v>
       </c>
       <c r="F118">
-        <v>8.906412774241719</v>
+        <v>8.204042785371518</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>8.277595532405041</v>
+        <v>8.853045285589223</v>
       </c>
       <c r="C119">
-        <v>8.866660776974424</v>
+        <v>8.720494938998046</v>
       </c>
       <c r="D119">
-        <v>8.290814310720116</v>
+        <v>8.790129848494404</v>
       </c>
       <c r="E119">
-        <v>8.754427182337224</v>
+        <v>8.842049875574212</v>
       </c>
       <c r="F119">
-        <v>8.91744176009737</v>
+        <v>8.211857860701274</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>8.292811350325433</v>
+        <v>8.850964101541903</v>
       </c>
       <c r="C120">
-        <v>8.866069118395684</v>
+        <v>8.721637628376328</v>
       </c>
       <c r="D120">
-        <v>8.303630638165064</v>
+        <v>8.793582101072639</v>
       </c>
       <c r="E120">
-        <v>8.756447340680074</v>
+        <v>8.841396738027527</v>
       </c>
       <c r="F120">
-        <v>8.927036867486521</v>
+        <v>8.219021390296394</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>8.307039202908657</v>
+        <v>8.847436097540319</v>
       </c>
       <c r="C121">
-        <v>8.86386791893433</v>
+        <v>8.721412484586446</v>
       </c>
       <c r="D121">
-        <v>8.315272042022908</v>
+        <v>8.795575436948207</v>
       </c>
       <c r="E121">
-        <v>8.756763636186848</v>
+        <v>8.839162706681179</v>
       </c>
       <c r="F121">
-        <v>8.93522567342708</v>
+        <v>8.225528103511548</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>8.320294667538258</v>
+        <v>8.842515685815657</v>
       </c>
       <c r="C122">
-        <v>8.860119050123128</v>
+        <v>8.719861487222325</v>
       </c>
       <c r="D122">
-        <v>8.325755823647235</v>
+        <v>8.796152436138781</v>
       </c>
       <c r="E122">
-        <v>8.755440790592662</v>
+        <v>8.83540539544037</v>
       </c>
       <c r="F122">
-        <v>8.942036102906835</v>
+        <v>8.231373029712293</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>8.332593258814857</v>
+        <v>8.836255390619533</v>
       </c>
       <c r="C123">
-        <v>8.854882130867862</v>
+        <v>8.717025650657746</v>
       </c>
       <c r="D123">
-        <v>8.335099811455628</v>
+        <v>8.795355018019823</v>
       </c>
       <c r="E123">
-        <v>8.752541973433232</v>
+        <v>8.830180842524719</v>
       </c>
       <c r="F123">
-        <v>8.947496324641286</v>
+        <v>8.236551509357943</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>8.343950404488064</v>
+        <v>8.82870588911894</v>
       </c>
       <c r="C124">
-        <v>8.848214594534708</v>
+        <v>8.712945001181781</v>
       </c>
       <c r="D124">
-        <v>8.343322280032236</v>
+        <v>8.79322436582858</v>
       </c>
       <c r="E124">
-        <v>8.74812875392969</v>
+        <v>8.823543472462903</v>
       </c>
       <c r="F124">
-        <v>8.951634654503311</v>
+        <v>8.241059184007828</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>8.354381427406183</v>
+        <v>8.819916046734591</v>
       </c>
       <c r="C125">
-        <v>8.840171756266271</v>
+        <v>8.707658558977664</v>
       </c>
       <c r="D125">
-        <v>8.350441876513329</v>
+        <v>8.789800867094366</v>
       </c>
       <c r="E125">
-        <v>8.74226106446995</v>
+        <v>8.815546076881869</v>
       </c>
       <c r="F125">
-        <v>8.95447947192733</v>
+        <v>8.244891991850473</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>8.363901524178511</v>
+        <v>8.809932961717825</v>
       </c>
       <c r="C126">
-        <v>8.830806880704653</v>
+        <v>8.701204327122751</v>
       </c>
       <c r="D126">
-        <v>8.356477552474985</v>
+        <v>8.785124067701389</v>
       </c>
       <c r="E126">
-        <v>8.734997166958545</v>
+        <v>8.806239810364673</v>
       </c>
       <c r="F126">
-        <v>8.956059145950999</v>
+        <v>8.248046173717844</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>8.372525751660756</v>
+        <v>8.798802019498808</v>
       </c>
       <c r="C127">
-        <v>8.820171260679201</v>
+        <v>8.693619302065914</v>
       </c>
       <c r="D127">
-        <v>8.361448503952847</v>
+        <v>8.779232637774191</v>
       </c>
       <c r="E127">
-        <v>8.726393612902076</v>
+        <v>8.795674197080798</v>
       </c>
       <c r="F127">
-        <v>8.956401970188809</v>
+        <v>8.250518261690589</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>8.380269020396288</v>
+        <v>8.786566942112211</v>
       </c>
       <c r="C128">
-        <v>8.808314276037514</v>
+        <v>8.684939476343645</v>
       </c>
       <c r="D128">
-        <v>8.365374115230706</v>
+        <v>8.772164348506259</v>
       </c>
       <c r="E128">
-        <v>8.716505192208867</v>
+        <v>8.783897145405552</v>
       </c>
       <c r="F128">
-        <v>8.955536104959412</v>
+        <v>8.252305079942431</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>8.387146075342423</v>
+        <v>8.773269839734809</v>
       </c>
       <c r="C129">
-        <v>8.795283466607142</v>
+        <v>8.67519984897249</v>
       </c>
       <c r="D129">
-        <v>8.368273908268069</v>
+        <v>8.763956055806725</v>
       </c>
       <c r="E129">
-        <v>8.705384874917394</v>
+        <v>8.770954969230074</v>
       </c>
       <c r="F129">
-        <v>8.953489526682555</v>
+        <v>8.253403744552596</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>8.39317150067351</v>
+        <v>8.758951262282292</v>
       </c>
       <c r="C130">
-        <v>8.781124591938461</v>
+        <v>8.664434433576291</v>
       </c>
       <c r="D130">
-        <v>8.37016749677068</v>
+        <v>8.754643689853809</v>
       </c>
       <c r="E130">
-        <v>8.693083759452445</v>
+        <v>8.75689241701664</v>
       </c>
       <c r="F130">
-        <v>8.950289984272874</v>
+        <v>8.253811652851498</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>8.398359706492299</v>
+        <v>8.743650251122597</v>
       </c>
       <c r="C131">
-        <v>8.76588169510288</v>
+        <v>8.652676272283827</v>
       </c>
       <c r="D131">
-        <v>8.371074544526525</v>
+        <v>8.744262242500533</v>
       </c>
       <c r="E131">
-        <v>8.679651042525881</v>
+        <v>8.741752699541058</v>
       </c>
       <c r="F131">
-        <v>8.945964959880875</v>
+        <v>8.253526489515787</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>8.402724922694357</v>
+        <v>8.727404389563311</v>
       </c>
       <c r="C132">
-        <v>8.749597160352723</v>
+        <v>8.639957457575658</v>
       </c>
       <c r="D132">
-        <v>8.37101472773241</v>
+        <v>8.73284578450534</v>
       </c>
       <c r="E132">
-        <v>8.665134017864247</v>
+        <v>8.725577523533063</v>
       </c>
       <c r="F132">
-        <v>8.940541635295562</v>
+        <v>8.252546217998788</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>8.406281194070742</v>
+        <v>8.710249853152884</v>
       </c>
       <c r="C133">
-        <v>8.732311780377312</v>
+        <v>8.626309148843633</v>
       </c>
       <c r="D133">
-        <v>8.370007700666987</v>
+        <v>8.720427465360853</v>
       </c>
       <c r="E133">
-        <v>8.649578101454376</v>
+        <v>8.708407130635047</v>
       </c>
       <c r="F133">
-        <v>8.934046863081699</v>
+        <v>8.250869077077716</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>8.409042380982569</v>
+        <v>8.692221456139045</v>
       </c>
       <c r="C134">
-        <v>8.714064811884199</v>
+        <v>8.611761592764818</v>
       </c>
       <c r="D134">
-        <v>8.36807306486716</v>
+        <v>8.707039519836904</v>
       </c>
       <c r="E134">
-        <v>8.633026876449582</v>
+        <v>8.690280335179535</v>
       </c>
       <c r="F134">
-        <v>8.926507146175938</v>
+        <v>8.248493581841338</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>8.411022152615926</v>
+        <v>8.673352701748032</v>
       </c>
       <c r="C135">
-        <v>8.69489403069807</v>
+        <v>8.5963441439478</v>
       </c>
       <c r="D135">
-        <v>8.365230341577917</v>
+        <v>8.692713282215561</v>
       </c>
       <c r="E135">
-        <v>8.615522149802372</v>
+        <v>8.671234570007893</v>
       </c>
       <c r="F135">
-        <v>8.917948604146284</v>
+        <v>8.245418516899587</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>8.412233989677958</v>
+        <v>8.653675832647336</v>
       </c>
       <c r="C136">
-        <v>8.674835785670695</v>
+        <v>8.580085285989206</v>
       </c>
       <c r="D136">
-        <v>8.361498946555718</v>
+        <v>8.677479189704707</v>
       </c>
       <c r="E136">
-        <v>8.597104014878981</v>
+        <v>8.651305921099775</v>
       </c>
       <c r="F136">
-        <v>8.908396969408811</v>
+        <v>8.241642934796738</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>8.412691181142662</v>
+        <v>8.633221876419285</v>
       </c>
       <c r="C137">
-        <v>8.653925056661535</v>
+        <v>8.563012653087766</v>
       </c>
       <c r="D137">
-        <v>8.356898167613814</v>
+        <v>8.661366806895938</v>
       </c>
       <c r="E137">
-        <v>8.57781091629421</v>
+        <v>8.630529169925657</v>
       </c>
       <c r="F137">
-        <v>8.897877550863152</v>
+        <v>8.237166153376835</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>8.412406823727746</v>
+        <v>8.612020684895983</v>
       </c>
       <c r="C138">
-        <v>8.632195497403309</v>
+        <v>8.545153052153179</v>
       </c>
       <c r="D138">
-        <v>8.351447144521208</v>
+        <v>8.644404835003398</v>
       </c>
       <c r="E138">
-        <v>8.557679714792018</v>
+        <v>8.608937826499115</v>
       </c>
       <c r="F138">
-        <v>8.886415250856537</v>
+        <v>8.231987751886798</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>8.411393822575347</v>
+        <v>8.590100981983301</v>
       </c>
       <c r="C139">
-        <v>8.609679491267503</v>
+        <v>8.526532482617792</v>
       </c>
       <c r="D139">
-        <v>8.345164851063451</v>
+        <v>8.626621135039748</v>
       </c>
       <c r="E139">
-        <v>8.536745750915953</v>
+        <v>8.586564179414998</v>
       </c>
       <c r="F139">
-        <v>8.874034531065487</v>
+        <v>8.226107568388239</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>8.409664891310568</v>
+        <v>8.567490398944667</v>
       </c>
       <c r="C140">
-        <v>8.586408195386266</v>
+        <v>8.507176158760871</v>
       </c>
       <c r="D140">
-        <v>8.338070079003527</v>
+        <v>8.60804274274839</v>
       </c>
       <c r="E140">
-        <v>8.515042906860524</v>
+        <v>8.56343933019267</v>
       </c>
       <c r="F140">
-        <v>8.860759418714478</v>
+        <v>8.219525697239893</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>8.407232552750912</v>
+        <v>8.544215519817605</v>
       </c>
       <c r="C141">
-        <v>8.562411578625211</v>
+        <v>8.487108530666138</v>
       </c>
       <c r="D141">
-        <v>8.33018142403556</v>
+        <v>8.588695887583786</v>
       </c>
       <c r="E141">
-        <v>8.492603666198431</v>
+        <v>8.539593235889813</v>
       </c>
       <c r="F141">
-        <v>8.846613501073623</v>
+        <v>8.21224248569219</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>8.404109140079802</v>
+        <v>8.520301921815319</v>
       </c>
       <c r="C142">
-        <v>8.537718491826034</v>
+        <v>8.466353309869929</v>
       </c>
       <c r="D142">
-        <v>8.321517273634768</v>
+        <v>8.568606011796106</v>
       </c>
       <c r="E142">
-        <v>8.46945917130954</v>
+        <v>8.515054745791046</v>
       </c>
       <c r="F142">
-        <v>8.831619909157922</v>
+        <v>8.204258532286412</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>8.400306795699185</v>
+        <v>8.495774206389893</v>
       </c>
       <c r="C143">
-        <v>8.512356674700191</v>
+        <v>8.444933485114033</v>
       </c>
       <c r="D143">
-        <v>8.312095795903142</v>
+        <v>8.547797789613016</v>
       </c>
       <c r="E143">
-        <v>8.445639278820908</v>
+        <v>8.489851641285128</v>
       </c>
       <c r="F143">
-        <v>8.815801321766413</v>
+        <v>8.195574683296563</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>8.395837476766868</v>
+        <v>8.470656043753118</v>
       </c>
       <c r="C144">
-        <v>8.486352826031041</v>
+        <v>8.422871346322353</v>
       </c>
       <c r="D144">
-        <v>8.30193493002451</v>
+        <v>8.526295146412636</v>
       </c>
       <c r="E144">
-        <v>8.421172612378495</v>
+        <v>8.46401067083031</v>
       </c>
       <c r="F144">
-        <v>8.799179958853331</v>
+        <v>8.186192031450146</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>8.390712948186888</v>
+        <v>8.444970201308941</v>
       </c>
       <c r="C145">
-        <v>8.45973265561101</v>
+        <v>8.400188504493025</v>
       </c>
       <c r="D145">
-        <v>8.291052378193932</v>
+        <v>8.504121278215377</v>
       </c>
       <c r="E145">
-        <v>8.396086613634941</v>
+        <v>8.437557586840454</v>
       </c>
       <c r="F145">
-        <v>8.781777591018857</v>
+        <v>8.176111912887693</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>8.384944800239355</v>
+        <v>8.418738581035365</v>
       </c>
       <c r="C146">
-        <v>8.432520840156437</v>
+        <v>8.376905909223149</v>
       </c>
       <c r="D146">
-        <v>8.279465598758863</v>
+        <v>8.481298671370087</v>
       </c>
       <c r="E146">
-        <v>8.37040759110395</v>
+        <v>8.410517180085579</v>
       </c>
       <c r="F146">
-        <v>8.763615529097496</v>
+        <v>8.165335905971851</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>8.37854443157876</v>
+        <v>8.391982252784672</v>
       </c>
       <c r="C147">
-        <v>8.404741192017138</v>
+        <v>8.353043870743738</v>
       </c>
       <c r="D147">
-        <v>8.267191800468344</v>
+        <v>8.457849120453165</v>
       </c>
       <c r="E147">
-        <v>8.344160766864213</v>
+        <v>8.382913314329457</v>
       </c>
       <c r="F147">
-        <v>8.744714633346428</v>
+        <v>8.153865829225667</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>8.371523066015506</v>
+        <v>8.364721481139753</v>
       </c>
       <c r="C148">
-        <v>8.376416569971703</v>
+        <v>8.328622073347066</v>
       </c>
       <c r="D148">
-        <v>8.254247937789751</v>
+        <v>8.433793747067876</v>
       </c>
       <c r="E148">
-        <v>8.317370321535657</v>
+        <v>8.354768964358826</v>
       </c>
       <c r="F148">
-        <v>8.725095314455487</v>
+        <v>8.141703740027168</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>8.363891748105594</v>
+        <v>8.336975760633848</v>
       </c>
       <c r="C149">
-        <v>8.347568976683551</v>
+        <v>8.303659601167793</v>
       </c>
       <c r="D149">
-        <v>8.240650706767386</v>
+        <v>8.409153020381886</v>
       </c>
       <c r="E149">
-        <v>8.290059439100686</v>
+        <v>8.326106230863241</v>
       </c>
       <c r="F149">
-        <v>8.704777533245471</v>
+        <v>8.128851933552236</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>8.355661345353141</v>
+        <v>8.308763835874531</v>
       </c>
       <c r="C150">
-        <v>8.31821959885689</v>
+        <v>8.278174952368916</v>
       </c>
       <c r="D150">
-        <v>8.226416543012522</v>
+        <v>8.38394677668723</v>
       </c>
       <c r="E150">
-        <v>8.262250345218087</v>
+        <v>8.296946408202098</v>
       </c>
       <c r="F150">
-        <v>8.683780810119227</v>
+        <v>8.115312942816926</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>8.346842552947802</v>
+        <v>8.280103753606445</v>
       </c>
       <c r="C151">
-        <v>8.288388779136328</v>
+        <v>8.252186057653992</v>
       </c>
       <c r="D151">
-        <v>8.211561619268757</v>
+        <v>8.358194236133334</v>
       </c>
       <c r="E151">
-        <v>8.233964344907958</v>
+        <v>8.267309964295544</v>
       </c>
       <c r="F151">
-        <v>8.662124223449608</v>
+        <v>8.101089538303503</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>8.337445892837488</v>
+        <v>8.251012850289692</v>
       </c>
       <c r="C152">
-        <v>8.258096126921171</v>
+        <v>8.225710296705339</v>
       </c>
       <c r="D152">
-        <v>8.196101844186343</v>
+        <v>8.331914018845964</v>
       </c>
       <c r="E152">
-        <v>8.205221863714321</v>
+        <v>8.23721662048985</v>
       </c>
       <c r="F152">
-        <v>8.639826419467616</v>
+        <v>8.08618472825744</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>8.327481715892645</v>
+        <v>8.221507819973557</v>
       </c>
       <c r="C153">
-        <v>8.227360480239694</v>
+        <v>8.198764516161239</v>
       </c>
       <c r="D153">
-        <v>8.180052862184358</v>
+        <v>8.305124168465261</v>
       </c>
       <c r="E153">
-        <v>8.176042492593504</v>
+        <v>8.206685349162221</v>
       </c>
       <c r="F153">
-        <v>8.616905613549735</v>
+        <v>8.07060175935322</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>8.31696020556811</v>
+        <v>8.191604737513964</v>
       </c>
       <c r="C154">
-        <v>8.196199972086225</v>
+        <v>8.171365044282265</v>
       </c>
       <c r="D154">
-        <v>8.163430054096322</v>
+        <v>8.277842159732231</v>
       </c>
       <c r="E154">
-        <v>8.146445005666205</v>
+        <v>8.175734395904596</v>
       </c>
       <c r="F154">
-        <v>8.593379598390067</v>
+        <v>8.054344118540968</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>8.305891381889623</v>
+        <v>8.161319007023893</v>
       </c>
       <c r="C155">
-        <v>8.164632054569994</v>
+        <v>8.143527708005854</v>
       </c>
       <c r="D155">
-        <v>8.146248538430243</v>
+        <v>8.250084926552598</v>
       </c>
       <c r="E155">
-        <v>8.116447416232701</v>
+        <v>8.14438134078199</v>
       </c>
       <c r="F155">
-        <v>8.569265749205563</v>
+        <v>8.037415535617106</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>8.294285100053013</v>
+        <v>8.130665511629173</v>
       </c>
       <c r="C156">
-        <v>8.132673494078333</v>
+        <v>8.115267847435813</v>
       </c>
       <c r="D156">
-        <v>8.12852317361966</v>
+        <v>8.221868864373416</v>
       </c>
       <c r="E156">
-        <v>8.086066958162483</v>
+        <v>8.11264307345183</v>
       </c>
       <c r="F156">
-        <v>8.544581029085975</v>
+        <v>8.019819986382581</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>8.282151055326217</v>
+        <v>8.099658538142018</v>
       </c>
       <c r="C157">
-        <v>8.100340451765462</v>
+        <v>8.086600331015793</v>
       </c>
       <c r="D157">
-        <v>8.110268561099851</v>
+        <v>8.193209859691427</v>
       </c>
       <c r="E157">
-        <v>8.055320171779595</v>
+        <v>8.080535870205578</v>
       </c>
       <c r="F157">
-        <v>8.519341997623373</v>
+        <v>8.001561696418328</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>8.269498784994736</v>
+        <v>8.068311807633076</v>
       </c>
       <c r="C158">
-        <v>8.067648447321556</v>
+        <v>8.057539570464282</v>
       </c>
       <c r="D158">
-        <v>8.09149904943115</v>
+        <v>8.164123297088484</v>
       </c>
       <c r="E158">
-        <v>8.024222929380175</v>
+        <v>8.048075375313259</v>
       </c>
       <c r="F158">
-        <v>8.493564815074597</v>
+        <v>7.982645147163456</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>8.256337669968529</v>
+        <v>8.036638559282148</v>
       </c>
       <c r="C159">
-        <v>8.034612425586424</v>
+        <v>8.028099529466635</v>
       </c>
       <c r="D159">
-        <v>8.072228739533815</v>
+        <v>8.134624079689573</v>
       </c>
       <c r="E159">
-        <v>7.992790422333709</v>
+        <v>8.015276648752039</v>
       </c>
       <c r="F159">
-        <v>8.467265251615396</v>
+        <v>7.963075082293988</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>8.242676937644751</v>
+        <v>8.004651487960281</v>
       </c>
       <c r="C160">
-        <v>8.001246768338229</v>
+        <v>7.998293746150731</v>
       </c>
       <c r="D160">
-        <v>8.052471491158293</v>
+        <v>8.104726639792831</v>
       </c>
       <c r="E160">
-        <v>7.961037232730134</v>
+        <v>7.982154184361599</v>
       </c>
       <c r="F160">
-        <v>8.440458692428356</v>
+        <v>7.94285651437946</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>8.228525664193556</v>
+        <v>7.972362824411888</v>
       </c>
       <c r="C161">
-        <v>7.967565288364759</v>
+        <v>7.968135349193969</v>
       </c>
       <c r="D161">
-        <v>8.03224093074701</v>
+        <v>8.074444956037418</v>
       </c>
       <c r="E161">
-        <v>7.928977347673063</v>
+        <v>7.948721919684528</v>
       </c>
       <c r="F161">
-        <v>8.413160145998132</v>
+        <v>7.921994736953064</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>8.213892776442894</v>
+        <v>7.939784335116889</v>
       </c>
       <c r="C162">
-        <v>7.933581301914062</v>
+        <v>7.937637047359333</v>
       </c>
       <c r="D162">
-        <v>8.011550460757052</v>
+        <v>8.043792566945747</v>
       </c>
       <c r="E162">
-        <v>7.896624158656789</v>
+        <v>7.914993281035386</v>
       </c>
       <c r="F162">
-        <v>8.385384251282687</v>
+        <v>7.900495334862637</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>8.198787054691541</v>
+        <v>7.906927314769999</v>
       </c>
       <c r="C163">
-        <v>7.899307593563914</v>
+        <v>7.906811167990893</v>
       </c>
       <c r="D163">
-        <v>7.990413270224667</v>
+        <v>8.012782582442552</v>
       </c>
       <c r="E163">
-        <v>7.863990511460825</v>
+        <v>7.880981165394207</v>
       </c>
       <c r="F163">
-        <v>8.357145283901129</v>
+        <v>7.878364197669545</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>8.183217134533045</v>
+        <v>7.873802653396564</v>
       </c>
       <c r="C164">
-        <v>7.864756475354159</v>
+        <v>7.875669677246962</v>
       </c>
       <c r="D164">
-        <v>7.968842345787352</v>
+        <v>7.981427701289778</v>
       </c>
       <c r="E164">
-        <v>7.831088733424899</v>
+        <v>7.846698003452233</v>
       </c>
       <c r="F164">
-        <v>8.328457163028354</v>
+        <v>7.855607535745937</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>8.167191509357611</v>
+        <v>7.840420813186936</v>
       </c>
       <c r="C165">
-        <v>7.82993979302366</v>
+        <v>7.844224148361938</v>
       </c>
       <c r="D165">
-        <v>7.946850481475709</v>
+        <v>7.949740218062579</v>
       </c>
       <c r="E165">
-        <v>7.797930623367164</v>
+        <v>7.812155743157154</v>
       </c>
       <c r="F165">
-        <v>8.29933346039059</v>
+        <v>7.83223189892518</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>8.150718532292498</v>
+        <v>7.806791855113206</v>
       </c>
       <c r="C166">
-        <v>7.794868930717256</v>
+        <v>7.812485797550105</v>
       </c>
       <c r="D166">
-        <v>7.924450284258211</v>
+        <v>7.917732042706923</v>
       </c>
       <c r="E166">
-        <v>7.764527495221341</v>
+        <v>7.777365881591643</v>
       </c>
       <c r="F166">
-        <v>8.269787403870268</v>
+        <v>7.808244198113273</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>8.133806418456356</v>
+        <v>7.772925475415023</v>
       </c>
       <c r="C167">
-        <v>7.759554858718242</v>
+        <v>7.780465528444655</v>
       </c>
       <c r="D167">
-        <v>7.901654171828383</v>
+        <v>7.885414704854415</v>
       </c>
       <c r="E167">
-        <v>7.730890214014534</v>
+        <v>7.742339488075774</v>
       </c>
       <c r="F167">
-        <v>8.239831888721101</v>
+        <v>7.783651729986515</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>8.116463247873003</v>
+        <v>7.73883097034726</v>
       </c>
       <c r="C168">
-        <v>7.724008108448703</v>
+        <v>7.748173886285008</v>
       </c>
       <c r="D168">
-        <v>7.878474360683972</v>
+        <v>7.852799374016125</v>
       </c>
       <c r="E168">
-        <v>7.697029178017917</v>
+        <v>7.707087200094044</v>
       </c>
       <c r="F168">
-        <v>8.209479486207377</v>
+        <v>7.758462205084553</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>8.098696967288546</v>
+        <v>7.704517308101594</v>
       </c>
       <c r="C169">
-        <v>7.688238826513613</v>
+        <v>7.715621078326762</v>
       </c>
       <c r="D169">
-        <v>7.854922846516759</v>
+        <v>7.819896861958203</v>
       </c>
       <c r="E169">
-        <v>7.662954357174254</v>
+        <v>7.671619268179105</v>
       </c>
       <c r="F169">
-        <v>8.178742444026398</v>
+        <v>7.732683778080728</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>8.080515389606148</v>
+        <v>7.669993110006074</v>
       </c>
       <c r="C170">
-        <v>7.652256772245672</v>
+        <v>7.682817032606092</v>
       </c>
       <c r="D170">
-        <v>7.831011382472286</v>
+        <v>7.78671764336159</v>
       </c>
       <c r="E170">
-        <v>7.628675326043946</v>
+        <v>7.635945539307953</v>
       </c>
       <c r="F170">
-        <v>8.147632699295393</v>
+        <v>7.706325083476858</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>8.061926199884493</v>
+        <v>7.635266646277359</v>
       </c>
       <c r="C171">
-        <v>7.616071322138528</v>
+        <v>7.649771356387225</v>
       </c>
       <c r="D171">
-        <v>7.806751460982106</v>
+        <v>7.753271856569966</v>
       </c>
       <c r="E171">
-        <v>7.594201249444187</v>
+        <v>7.600075501268142</v>
       </c>
       <c r="F171">
-        <v>8.116161883923739</v>
+        <v>7.679395272050978</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>8.042936957446532</v>
+        <v>7.600345897738029</v>
       </c>
       <c r="C172">
-        <v>7.579691513984403</v>
+        <v>7.616493346582878</v>
       </c>
       <c r="D172">
-        <v>7.782154302084031</v>
+        <v>7.719569324197527</v>
       </c>
       <c r="E172">
-        <v>7.559540912253533</v>
+        <v>7.564018277151906</v>
       </c>
       <c r="F172">
-        <v>8.084341331654482</v>
+        <v>7.651904048394144</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>8.023555096469684</v>
+        <v>7.565238525260794</v>
       </c>
       <c r="C173">
-        <v>7.543126023001984</v>
+        <v>7.582992041296638</v>
       </c>
       <c r="D173">
-        <v>7.757230848165316</v>
+        <v>7.68561955311843</v>
       </c>
       <c r="E173">
-        <v>7.524702751559044</v>
+        <v>7.527782642809473</v>
       </c>
       <c r="F173">
-        <v>8.052182082292099</v>
+        <v>7.623861708813073</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>8.00378792319732</v>
+        <v>7.529951896671989</v>
       </c>
       <c r="C174">
-        <v>7.506383208108296</v>
+        <v>7.549276192781996</v>
       </c>
       <c r="D174">
-        <v>7.731991763514438</v>
+        <v>7.651431753935484</v>
       </c>
       <c r="E174">
-        <v>7.489694844827275</v>
+        <v>7.491377050678718</v>
       </c>
       <c r="F174">
-        <v>8.019694893882949</v>
+        <v>7.595279175625024</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7.983642628007563</v>
+        <v>7.494493109071931</v>
       </c>
       <c r="C175">
-        <v>7.469471107150169</v>
+        <v>7.515354271431879</v>
       </c>
       <c r="D175">
-        <v>7.706447437259945</v>
+        <v>7.617014838252726</v>
       </c>
       <c r="E175">
-        <v>7.454524932789657</v>
+        <v>7.454809621691988</v>
       </c>
       <c r="F175">
-        <v>7.986890244637562</v>
+        <v>7.566168023456172</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7.963126282013707</v>
+        <v>7.458868974798303</v>
       </c>
       <c r="C176">
-        <v>7.432397444694859</v>
+        <v>7.481234509836605</v>
       </c>
       <c r="D176">
-        <v>7.680607988067594</v>
+        <v>7.582377441605786</v>
       </c>
       <c r="E176">
-        <v>7.419200450473824</v>
+        <v>7.418088183111466</v>
       </c>
       <c r="F176">
-        <v>7.953778336600221</v>
+        <v>7.536540493548807</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7.942245839200583</v>
+        <v>7.423086060913389</v>
       </c>
       <c r="C177">
-        <v>7.395169664909542</v>
+        <v>7.446924884254765</v>
       </c>
       <c r="D177">
-        <v>7.654483269896008</v>
+        <v>7.547527930885643</v>
       </c>
       <c r="E177">
-        <v>7.383728517379494</v>
+        <v>7.381220255432191</v>
       </c>
       <c r="F177">
-        <v>7.920369111397484</v>
+        <v>7.506409489784899</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7.921008131043356</v>
+        <v>7.387150679605286</v>
       </c>
       <c r="C178">
-        <v>7.357794913143113</v>
+        <v>7.412433110006596</v>
       </c>
       <c r="D178">
-        <v>7.628082878294276</v>
+        <v>7.512474395871469</v>
       </c>
       <c r="E178">
-        <v>7.348115954456863</v>
+        <v>7.344213081867992</v>
       </c>
       <c r="F178">
-        <v>7.886672249953185</v>
+        <v>7.47578855187822</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7.899419884851691</v>
+        <v>7.351068890936561</v>
       </c>
       <c r="C179">
-        <v>7.320280076075945</v>
+        <v>7.377766690755615</v>
       </c>
       <c r="D179">
-        <v>7.60141615690212</v>
+        <v>7.477224675657629</v>
       </c>
       <c r="E179">
-        <v>7.312369313835392</v>
+        <v>7.307073631479942</v>
       </c>
       <c r="F179">
-        <v>7.852697180945664</v>
+        <v>7.444691801858153</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7.877487714094561</v>
+        <v>7.314846542047925</v>
       </c>
       <c r="C180">
-        <v>7.282631774118673</v>
+        <v>7.342932898097454</v>
       </c>
       <c r="D180">
-        <v>7.574492203975683</v>
+        <v>7.441786376994131</v>
       </c>
       <c r="E180">
-        <v>7.276494870989192</v>
+        <v>7.269808605577839</v>
       </c>
       <c r="F180">
-        <v>7.81845308793307</v>
+        <v>7.413133862991208</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7.855218121919699</v>
+        <v>7.278489243379033</v>
       </c>
       <c r="C181">
-        <v>7.24485637032391</v>
+        <v>7.307938759900581</v>
       </c>
       <c r="D181">
-        <v>7.547319878860767</v>
+        <v>7.40616685120507</v>
       </c>
       <c r="E181">
-        <v>7.24049863653353</v>
+        <v>7.232424460999714</v>
       </c>
       <c r="F181">
-        <v>7.783948910294578</v>
+        <v>7.381129755452855</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7.832617498600068</v>
+        <v>7.242002394577208</v>
       </c>
       <c r="C182">
-        <v>7.20695999702127</v>
+        <v>7.272791116820784</v>
       </c>
       <c r="D182">
-        <v>7.51990780835798</v>
+        <v>7.370373203471293</v>
       </c>
       <c r="E182">
-        <v>7.204386384712282</v>
+        <v>7.194927401168973</v>
       </c>
       <c r="F182">
-        <v>7.749193357104301</v>
+        <v>7.348694775095011</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7.809692135793878</v>
+        <v>7.205391196402185</v>
       </c>
       <c r="C183">
-        <v>7.168948539087026</v>
+        <v>7.237496598015411</v>
       </c>
       <c r="D183">
-        <v>7.492264392951103</v>
+        <v>7.334412347655391</v>
       </c>
       <c r="E183">
-        <v>7.168163647339584</v>
+        <v>7.157323405614887</v>
       </c>
       <c r="F183">
-        <v>7.714194908449526</v>
+        <v>7.315844365043477</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7.786448218871088</v>
+        <v>7.168660635521071</v>
       </c>
       <c r="C184">
-        <v>7.130827669829095</v>
+        <v>7.202061610387579</v>
       </c>
       <c r="D184">
-        <v>7.464397812886095</v>
+        <v>7.298290966559044</v>
       </c>
       <c r="E184">
-        <v>7.131835721157358</v>
+        <v>7.119618222117895</v>
       </c>
       <c r="F184">
-        <v>7.678961817896799</v>
+        <v>7.282593990233244</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7.762891828896628</v>
+        <v>7.131815522848782</v>
       </c>
       <c r="C185">
-        <v>7.092602841798619</v>
+        <v>7.166492388635231</v>
       </c>
       <c r="D185">
-        <v>7.436316034105609</v>
+        <v>7.262015505846797</v>
       </c>
       <c r="E185">
-        <v>7.095407695128147</v>
+        <v>7.081817384452366</v>
       </c>
       <c r="F185">
-        <v>7.643502127023502</v>
+        <v>7.248959021647754</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7.739028943532015</v>
+        <v>7.094860480188983</v>
       </c>
       <c r="C186">
-        <v>7.054279296351965</v>
+        <v>7.130794976406976</v>
       </c>
       <c r="D186">
-        <v>7.408026814025439</v>
+        <v>7.225592242785965</v>
       </c>
       <c r="E186">
-        <v>7.058884445747565</v>
+        <v>7.043926220394647</v>
       </c>
       <c r="F186">
-        <v>7.607823663086576</v>
+        <v>7.21495463772245</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7.71486544662829</v>
+        <v>7.057799947864554</v>
       </c>
       <c r="C187">
-        <v>7.015862083998282</v>
+        <v>7.094975219526783</v>
       </c>
       <c r="D187">
-        <v>7.379537707161939</v>
+        <v>7.189027247938846</v>
       </c>
       <c r="E187">
-        <v>7.022270641012049</v>
+        <v>7.005949852039102</v>
       </c>
       <c r="F187">
-        <v>7.571934045916326</v>
+        <v>7.18059574366911</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7.690407123021261</v>
+        <v>7.020638206473382</v>
       </c>
       <c r="C188">
-        <v>6.97735605201281</v>
+        <v>7.059038798876794</v>
       </c>
       <c r="D188">
-        <v>7.350856070611063</v>
+        <v>7.152326377815073</v>
       </c>
       <c r="E188">
-        <v>6.985570766405922</v>
+        <v>6.967893216782373</v>
       </c>
       <c r="F188">
-        <v>7.535840698362535</v>
+        <v>7.145896909463806</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7.665659659710929</v>
+        <v>6.983379363997384</v>
       </c>
       <c r="C189">
-        <v>6.938765873039543</v>
+        <v>7.022991226607466</v>
       </c>
       <c r="D189">
-        <v>7.321989069381636</v>
+        <v>7.115495329619364</v>
       </c>
       <c r="E189">
-        <v>6.948789120234355</v>
+        <v>6.929761058322691</v>
       </c>
       <c r="F189">
-        <v>7.499550843128905</v>
+        <v>7.110872324929305</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7.640628649585891</v>
+        <v>6.946027376254176</v>
       </c>
       <c r="C190">
-        <v>6.900096037601549</v>
+        <v>6.986837840026482</v>
       </c>
       <c r="D190">
-        <v>7.292943681733963</v>
+        <v>7.078539616057075</v>
       </c>
       <c r="E190">
-        <v>6.911929817479356</v>
+        <v>6.891557950179339</v>
       </c>
       <c r="F190">
-        <v>7.463071515042749</v>
+        <v>7.07553576943765</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7.615319595596971</v>
+        <v>6.908586050866282</v>
       </c>
       <c r="C191">
-        <v>6.861350862977576</v>
+        <v>6.950583820520488</v>
       </c>
       <c r="D191">
-        <v>7.263726705781611</v>
+        <v>7.041464562179103</v>
       </c>
       <c r="E191">
-        <v>6.874996811707732</v>
+        <v>6.853288290628187</v>
       </c>
       <c r="F191">
-        <v>7.426409564157146</v>
+        <v>7.039900593123809</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7.589737909157451</v>
+        <v>6.871059040622477</v>
       </c>
       <c r="C192">
-        <v>6.822534508673162</v>
+        <v>6.914234199656776</v>
       </c>
       <c r="D192">
-        <v>7.23434476024933</v>
+        <v>7.004275337741279</v>
       </c>
       <c r="E192">
-        <v>6.837993891877461</v>
+        <v>6.814956313293354</v>
       </c>
       <c r="F192">
-        <v>7.389571655329235</v>
+        <v>7.003979705668157</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7.563888907927253</v>
+        <v>6.833449869480752</v>
       </c>
       <c r="C193">
-        <v>6.783650966973629</v>
+        <v>6.87779384903924</v>
       </c>
       <c r="D193">
-        <v>7.204804292099794</v>
+        <v>6.966976952025456</v>
       </c>
       <c r="E193">
-        <v>6.800924685817774</v>
+        <v>6.776566096898269</v>
       </c>
       <c r="F193">
-        <v>7.352564282409837</v>
+        <v>6.967785576657007</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7.537777824477585</v>
+        <v>6.795761922047429</v>
       </c>
       <c r="C194">
-        <v>6.744704086464174</v>
+        <v>6.841267494904421</v>
       </c>
       <c r="D194">
-        <v>7.175111582147601</v>
+        <v>6.929574248464582</v>
       </c>
       <c r="E194">
-        <v>6.763792678536862</v>
+        <v>6.738121562763173</v>
       </c>
       <c r="F194">
-        <v>7.315393765884893</v>
+        <v>6.931330238510332</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7.511409806367469</v>
+        <v>6.757998450850044</v>
       </c>
       <c r="C195">
-        <v>6.705697565298666</v>
+        <v>6.804659731766257</v>
       </c>
       <c r="D195">
-        <v>7.145272742826736</v>
+        <v>6.892071920852838</v>
       </c>
       <c r="E195">
-        <v>6.726601210317619</v>
+        <v>6.699626492246387</v>
       </c>
       <c r="F195">
-        <v>7.278066257365364</v>
+        <v>6.894625291746581</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7.484789915741214</v>
+        <v>6.720162591818437</v>
       </c>
       <c r="C196">
-        <v>6.666634959437876</v>
+        <v>6.767975009864073</v>
       </c>
       <c r="D196">
-        <v>7.115293734186944</v>
+        <v>6.854474524483602</v>
       </c>
       <c r="E196">
-        <v>6.689353479580253</v>
+        <v>6.661084520081887</v>
       </c>
       <c r="F196">
-        <v>7.240587750240665</v>
+        <v>6.857681913891529</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7.45792312525142</v>
+        <v>6.6822573525707</v>
       </c>
       <c r="C197">
-        <v>6.627519694505484</v>
+        <v>6.731217643893546</v>
       </c>
       <c r="D197">
-        <v>7.085180361237548</v>
+        <v>6.816786464568638</v>
       </c>
       <c r="E197">
-        <v>6.652052557886696</v>
+        <v>6.622499150452938</v>
       </c>
       <c r="F197">
-        <v>7.202964076275126</v>
+        <v>6.820510871042546</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7.430814331612495</v>
+        <v>6.644285631583922</v>
       </c>
       <c r="C198">
-        <v>6.588355058550819</v>
+        <v>6.694391830577651</v>
       </c>
       <c r="D198">
-        <v>7.054938276136934</v>
+        <v>6.779012001507803</v>
       </c>
       <c r="E198">
-        <v>6.614701391666959</v>
+        <v>6.583873756008211</v>
       </c>
       <c r="F198">
-        <v>7.165200914664118</v>
+        <v>6.783122530054665</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7.403468349703992</v>
+        <v>6.606250216979769</v>
       </c>
       <c r="C199">
-        <v>6.549144221265315</v>
+        <v>6.657501636990149</v>
       </c>
       <c r="D199">
-        <v>7.024572987829862</v>
+        <v>6.741155278320995</v>
       </c>
       <c r="E199">
-        <v>6.577302801725278</v>
+        <v>6.545211582983073</v>
       </c>
       <c r="F199">
-        <v>7.127303797025719</v>
+        <v>6.745526870912296</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7.375889914767886</v>
+        <v>6.568153784355493</v>
       </c>
       <c r="C200">
-        <v>6.509890228148773</v>
+        <v>6.620551004531061</v>
       </c>
       <c r="D200">
-        <v>6.994089863311176</v>
+        <v>6.703220302534137</v>
       </c>
       <c r="E200">
-        <v>6.539859495900647</v>
+        <v>6.506515761150617</v>
       </c>
       <c r="F200">
-        <v>7.089278104696036</v>
+        <v>6.707733499619949</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7.348083679025202</v>
+        <v>6.529998914465468</v>
       </c>
       <c r="C201">
-        <v>6.470596008091658</v>
+        <v>6.583543768943369</v>
       </c>
       <c r="D201">
-        <v>6.963494128815991</v>
+        <v>6.665210942162566</v>
       </c>
       <c r="E201">
-        <v>6.502374072328331</v>
+        <v>6.467789300146936</v>
       </c>
       <c r="F201">
-        <v>7.051129082132785</v>
+        <v>6.669751661344265</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7.320054224203461</v>
+        <v>6.491788085534232</v>
       </c>
       <c r="C202">
-        <v>6.431264382198238</v>
+        <v>6.546483649406131</v>
       </c>
       <c r="D202">
-        <v>6.932790878916102</v>
+        <v>6.627130963281472</v>
       </c>
       <c r="E202">
-        <v>6.464849018652402</v>
+        <v>6.429035103603484</v>
       </c>
       <c r="F202">
-        <v>7.012861834667312</v>
+        <v>6.631590253393905</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7.291806054914919</v>
+        <v>6.453523680312161</v>
       </c>
       <c r="C203">
-        <v>6.391898058544382</v>
+        <v>6.509374249591524</v>
       </c>
       <c r="D203">
-        <v>6.901985083017369</v>
+        <v>6.588984010088908</v>
       </c>
       <c r="E203">
-        <v>6.427286722716532</v>
+        <v>6.390255964773359</v>
       </c>
       <c r="F203">
-        <v>6.974481331121325</v>
+        <v>6.593257837882127</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7.263343601002656</v>
+        <v>6.415207995206739</v>
       </c>
       <c r="C204">
-        <v>6.352499647694463</v>
+        <v>6.472219078023683</v>
       </c>
       <c r="D204">
-        <v>6.871081571124433</v>
+        <v>6.550773601499224</v>
       </c>
       <c r="E204">
-        <v>6.389689476516699</v>
+        <v>6.351454576424737</v>
       </c>
       <c r="F204">
-        <v>6.935992414105853</v>
+        <v>6.55476265410463</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7.234671216320227</v>
+        <v>6.376843232220895</v>
       </c>
       <c r="C205">
-        <v>6.313071657708566</v>
+        <v>6.435021538454102</v>
       </c>
       <c r="D205">
-        <v>6.84008505661911</v>
+        <v>6.512503160461331</v>
       </c>
       <c r="E205">
-        <v>6.352059474260852</v>
+        <v>6.312633533115764</v>
       </c>
       <c r="F205">
-        <v>6.897399796867861</v>
+        <v>6.516112630625553</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7.2057931879376</v>
+        <v>6.338431515027009</v>
       </c>
       <c r="C206">
-        <v>6.273616501067249</v>
+        <v>6.397784928231164</v>
       </c>
       <c r="D206">
-        <v>6.809000134666526</v>
+        <v>6.474176001321132</v>
       </c>
       <c r="E206">
-        <v>6.314398821191984</v>
+        <v>6.273795332673119</v>
       </c>
       <c r="F206">
-        <v>6.858708069450125</v>
+        <v>6.477315397047775</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7.176713731274813</v>
+        <v>6.299974885029895</v>
       </c>
       <c r="C207">
-        <v>6.23413650115312</v>
+        <v>6.360512459643309</v>
       </c>
       <c r="D207">
-        <v>6.7778312552476</v>
+        <v>6.435795329808908</v>
       </c>
       <c r="E207">
-        <v>6.276709539122153</v>
+        <v>6.234942385401745</v>
       </c>
       <c r="F207">
-        <v>6.819921704783058</v>
+        <v>6.43837829555912</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7.147436991139831</v>
+        <v>6.261475301965747</v>
       </c>
       <c r="C208">
-        <v>6.194633888459109</v>
+        <v>6.323207250588483</v>
       </c>
       <c r="D208">
-        <v>6.746582787918021</v>
+        <v>6.397364258646287</v>
       </c>
       <c r="E208">
-        <v>6.238993564350797</v>
+        <v>6.196077010337872</v>
       </c>
       <c r="F208">
-        <v>6.781045055207776</v>
+        <v>6.399308391709775</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7.117967042853135</v>
+        <v>6.222934656072368</v>
       </c>
       <c r="C209">
-        <v>6.155110813208012</v>
+        <v>6.285872321128853</v>
       </c>
       <c r="D209">
-        <v>6.715258990936908</v>
+        <v>6.35888580666902</v>
       </c>
       <c r="E209">
-        <v>6.20125275514207</v>
+        <v>6.15720144637514</v>
       </c>
       <c r="F209">
-        <v>6.742082363474839</v>
+        <v>6.360112484970056</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7.088307898676963</v>
+        <v>6.184354761891059</v>
       </c>
       <c r="C210">
-        <v>6.115569341009493</v>
+        <v>6.248510615204218</v>
       </c>
       <c r="D210">
-        <v>6.68386400573354</v>
+        <v>6.320362892852985</v>
       </c>
       <c r="E210">
-        <v>6.163488895255283</v>
+        <v>6.118317847113524</v>
       </c>
       <c r="F210">
-        <v>6.703037761917218</v>
+        <v>6.320797118872396</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7.058463504234463</v>
+        <v>6.145737364931708</v>
       </c>
       <c r="C211">
-        <v>6.076011459169728</v>
+        <v>6.211124991669564</v>
       </c>
       <c r="D211">
-        <v>6.65240186895863</v>
+        <v>6.281798347540941</v>
       </c>
       <c r="E211">
-        <v>6.125703694031484</v>
+        <v>6.079428290530349</v>
       </c>
       <c r="F211">
-        <v>6.663915273198579</v>
+        <v>6.281368590961027</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7.028437738276072</v>
+        <v>6.107084146890203</v>
       </c>
       <c r="C212">
-        <v>6.036439081341896</v>
+        <v>6.173718219991499</v>
       </c>
       <c r="D212">
-        <v>6.620876515808222</v>
+        <v>6.243194921354457</v>
       </c>
       <c r="E212">
-        <v>6.08789879141534</v>
+        <v>6.040534784391016</v>
       </c>
       <c r="F212">
-        <v>6.624718819858598</v>
+        <v>6.241832962147688</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6.99823441655078</v>
+        <v>6.068396720238994</v>
       </c>
       <c r="C213">
-        <v>5.996854044905258</v>
+        <v>6.136293000972946</v>
       </c>
       <c r="D213">
-        <v>6.589291782122613</v>
+        <v>6.20455527582649</v>
       </c>
       <c r="E213">
-        <v>6.050075761136131</v>
+        <v>6.001639265107527</v>
       </c>
       <c r="F213">
-        <v>6.585452221722011</v>
+        <v>6.202196065870598</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6.967857294873745</v>
+        <v>6.029676640558963</v>
       </c>
       <c r="C214">
-        <v>5.957258121148538</v>
+        <v>6.098851958448019</v>
       </c>
       <c r="D214">
-        <v>6.557651407247397</v>
+        <v>6.16588198693587</v>
       </c>
       <c r="E214">
-        <v>6.01223611219501</v>
+        <v>5.962743585297539</v>
       </c>
       <c r="F214">
-        <v>6.546119199813934</v>
+        <v>6.162463516918105</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6.937310067200578</v>
+        <v>5.990925402540124</v>
       </c>
       <c r="C215">
-        <v>5.91765301155525</v>
+        <v>6.061397636995605</v>
       </c>
       <c r="D215">
-        <v>6.525959036719102</v>
+        <v>6.127177561399542</v>
       </c>
       <c r="E215">
-        <v>5.974381292250656</v>
+        <v>5.923849554153372</v>
       </c>
       <c r="F215">
-        <v>6.506723382643464</v>
+        <v>6.122640719812008</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6.906596364170494</v>
+        <v>5.952144441635648</v>
       </c>
       <c r="C216">
-        <v>5.878040353509963</v>
+        <v>6.023932516063515</v>
       </c>
       <c r="D216">
-        <v>6.49421821983445</v>
+        <v>6.088444426713539</v>
       </c>
       <c r="E216">
-        <v>5.936512691710873</v>
+        <v>5.884958915102062</v>
       </c>
       <c r="F216">
-        <v>6.467268303327013</v>
+        <v>6.082732877019177</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6.87571975976134</v>
+        <v>5.913335142119355</v>
       </c>
       <c r="C217">
-        <v>5.838421722907277</v>
+        <v>5.986459007585705</v>
       </c>
       <c r="D217">
-        <v>6.462432420703013</v>
+        <v>6.049684929885181</v>
       </c>
       <c r="E217">
-        <v>5.89863164363476</v>
+        <v>5.846073338054953</v>
       </c>
       <c r="F217">
-        <v>6.427757407062978</v>
+        <v>6.042744996552464</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6.844683770593849</v>
+        <v>5.874498832494794</v>
       </c>
       <c r="C218">
-        <v>5.798798630846059</v>
+        <v>5.948979452688297</v>
       </c>
       <c r="D218">
-        <v>6.430605021299971</v>
+        <v>6.01090135663056</v>
       </c>
       <c r="E218">
-        <v>5.86073942666587</v>
+        <v>5.807194431773159</v>
       </c>
       <c r="F218">
-        <v>6.388194052216755</v>
+        <v>6.002681899620255</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6.813491856050748</v>
+        <v>5.83563679147177</v>
       </c>
       <c r="C219">
-        <v>5.759172537610776</v>
+        <v>5.911496131350636</v>
       </c>
       <c r="D219">
-        <v>6.398739320951822</v>
+        <v>5.972095922085126</v>
       </c>
       <c r="E219">
-        <v>5.822837269388575</v>
+        <v>5.768323770057936</v>
       </c>
       <c r="F219">
-        <v>6.348581507162669</v>
+        <v>5.962548227853944</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6.782147415584757</v>
+        <v>5.796750250373028</v>
       </c>
       <c r="C220">
-        <v>5.719544848613857</v>
+        <v>5.874011264180675</v>
       </c>
       <c r="D220">
-        <v>6.366838534139939</v>
+        <v>5.933270767817192</v>
       </c>
       <c r="E220">
-        <v>5.784926349819377</v>
+        <v>5.729462868419737</v>
       </c>
       <c r="F220">
-        <v>6.30892296504547</v>
+        <v>5.922348450304273</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6.75065379801392</v>
+        <v>5.757840390134729</v>
       </c>
       <c r="C221">
-        <v>5.679916910528358</v>
+        <v>5.836527008503388</v>
       </c>
       <c r="D221">
-        <v>6.334905795199441</v>
+        <v>5.894427979909383</v>
       </c>
       <c r="E221">
-        <v>5.747007797624982</v>
+        <v>5.690613164367464</v>
       </c>
       <c r="F221">
-        <v>6.269221539083163</v>
+        <v>5.882086870107012</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6.719014297125645</v>
+        <v>5.718908350010639</v>
       </c>
       <c r="C222">
-        <v>5.640290016770642</v>
+        <v>5.799045464733272</v>
       </c>
       <c r="D222">
-        <v>6.302944161184425</v>
+        <v>5.855569581160021</v>
       </c>
       <c r="E222">
-        <v>5.709082698605333</v>
+        <v>5.651776075277654</v>
       </c>
       <c r="F222">
-        <v>6.229480265988381</v>
+        <v>5.841767630919676</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6.687232153476871</v>
+        <v>5.679955224411406</v>
       </c>
       <c r="C223">
-        <v>5.60066542480606</v>
+        <v>5.761568681003737</v>
       </c>
       <c r="D223">
-        <v>6.270956614686449</v>
+        <v>5.816697529397312</v>
       </c>
       <c r="E223">
-        <v>5.671152094509816</v>
+        <v>5.612952964555547</v>
       </c>
       <c r="F223">
-        <v>6.189702092071064</v>
+        <v>5.801394723028778</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6.655310552316123</v>
+        <v>5.640982064737469</v>
       </c>
       <c r="C224">
-        <v>5.561044343867011</v>
+        <v>5.724098648913857</v>
       </c>
       <c r="D224">
-        <v>6.238946061705487</v>
+        <v>5.777813729104235</v>
       </c>
       <c r="E224">
-        <v>5.633216984417181</v>
+        <v>5.574145146733947</v>
       </c>
       <c r="F224">
-        <v>6.149889912554475</v>
+        <v>5.760971989445506</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6.623252631793037</v>
+        <v>5.601989884748984</v>
       </c>
       <c r="C225">
-        <v>5.521427916626106</v>
+        <v>5.686637307414986</v>
       </c>
       <c r="D225">
-        <v>6.206915341554474</v>
+        <v>5.738920030281636</v>
       </c>
       <c r="E225">
-        <v>5.595278329434044</v>
+        <v>5.535353885916275</v>
       </c>
       <c r="F225">
-        <v>6.11004654770161</v>
+        <v>5.720503131650853</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6.591061478657696</v>
+        <v>5.562979654738087</v>
       </c>
       <c r="C226">
-        <v>5.481817258198547</v>
+        <v>5.649186549408074</v>
       </c>
       <c r="D226">
-        <v>6.174867219773826</v>
+        <v>5.700018225383912</v>
       </c>
       <c r="E226">
-        <v>5.557337051744743</v>
+        <v>5.496580417303706</v>
       </c>
       <c r="F226">
-        <v>6.070174751264033</v>
+        <v>5.679991715082433</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6.558740129694907</v>
+        <v>5.523952311182757</v>
       </c>
       <c r="C227">
-        <v>5.442213447415525</v>
+        <v>5.611748217363117</v>
       </c>
       <c r="D227">
-        <v>6.142804392845571</v>
+        <v>5.661110055221442</v>
       </c>
       <c r="E227">
-        <v>5.519394037430303</v>
+        <v>5.457825933109351</v>
       </c>
       <c r="F227">
-        <v>6.0302771820539</v>
+        <v>5.639441174396091</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6.526291571138202</v>
+        <v>5.484908756483557</v>
       </c>
       <c r="C228">
-        <v>5.402617520302834</v>
+        <v>5.574324105322774</v>
       </c>
       <c r="D228">
-        <v>6.110729500631821</v>
+        <v>5.622197214203572</v>
       </c>
       <c r="E228">
-        <v>5.481450140126832</v>
+        <v>5.419091580244248</v>
       </c>
       <c r="F228">
-        <v>5.990356471065524</v>
+        <v>5.598854818693424</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6.493718744913958</v>
+        <v>5.445849859931005</v>
       </c>
       <c r="C229">
-        <v>5.363030450718951</v>
+        <v>5.536915966739957</v>
       </c>
       <c r="D229">
-        <v>6.07864513370436</v>
+        <v>5.583281345662798</v>
       </c>
       <c r="E229">
-        <v>5.443506169178135</v>
+        <v>5.380378474803448</v>
       </c>
       <c r="F229">
-        <v>5.950415176943429</v>
+        <v>5.558235836648847</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6.461024545287263</v>
+        <v>5.406776445960012</v>
       </c>
       <c r="C230">
-        <v>5.323453203037168</v>
+        <v>5.499525510180087</v>
       </c>
       <c r="D230">
-        <v>6.046553796747082</v>
+        <v>5.544364043618349</v>
       </c>
       <c r="E230">
-        <v>5.405562920507485</v>
+        <v>5.341687700259984</v>
       </c>
       <c r="F230">
-        <v>5.910455800202871</v>
+        <v>5.517587300641277</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6.428211819505407</v>
+        <v>5.367689319533104</v>
       </c>
       <c r="C231">
-        <v>5.283886697892156</v>
+        <v>5.462154399954859</v>
       </c>
       <c r="D231">
-        <v>6.014457947773625</v>
+        <v>5.505446862264957</v>
       </c>
       <c r="E231">
-        <v>5.367621139138921</v>
+        <v>5.303020305479346</v>
       </c>
       <c r="F231">
-        <v>5.87048075712669</v>
+        <v>5.476912171304632</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6.395283368946673</v>
+        <v>5.328589256493584</v>
       </c>
       <c r="C232">
-        <v>5.244331819309235</v>
+        <v>5.424804264569079</v>
       </c>
       <c r="D232">
-        <v>5.982359971854465</v>
+        <v>5.466531310541926</v>
       </c>
       <c r="E232">
-        <v>5.329681537413873</v>
+        <v>5.264377301335379</v>
       </c>
       <c r="F232">
-        <v>5.830492438376222</v>
+        <v>5.436213302267402</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6.362241953106936</v>
+        <v>5.289477004455807</v>
       </c>
       <c r="C233">
-        <v>5.204789410582062</v>
+        <v>5.387476692682108</v>
       </c>
       <c r="D233">
-        <v>5.950262205452375</v>
+        <v>5.427618851316081</v>
       </c>
       <c r="E233">
-        <v>5.291744818560688</v>
+        <v>5.225759678020437</v>
       </c>
       <c r="F233">
-        <v>5.790493170835241</v>
+        <v>5.395493445501315</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6.329090287405466</v>
+        <v>5.250353260404659</v>
       </c>
       <c r="C234">
-        <v>5.165260295394568</v>
+        <v>5.350173232784702</v>
       </c>
       <c r="D234">
-        <v>5.918166925577444</v>
+        <v>5.388710912666142</v>
       </c>
       <c r="E234">
-        <v>5.253811656489241</v>
+        <v>5.187168395285545</v>
       </c>
       <c r="F234">
-        <v>5.750485229621032</v>
+        <v>5.354755257129304</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6.295831043027657</v>
+        <v>5.211218716373248</v>
       </c>
       <c r="C235">
-        <v>5.125745263527647</v>
+        <v>5.312895401794238</v>
       </c>
       <c r="D235">
-        <v>5.886076359432984</v>
+        <v>5.349808882648145</v>
       </c>
       <c r="E235">
-        <v>5.215882695170944</v>
+        <v>5.148604379029877</v>
       </c>
       <c r="F235">
-        <v>5.710470824232586</v>
+        <v>5.314001291144833</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6.262466849836717</v>
+        <v>5.172074037291098</v>
       </c>
       <c r="C236">
-        <v>5.086245071399457</v>
+        <v>5.27564468137125</v>
       </c>
       <c r="D236">
-        <v>5.853992683513728</v>
+        <v>5.310914107119381</v>
       </c>
       <c r="E236">
-        <v>5.177958553863696</v>
+        <v>5.110068529361715</v>
       </c>
       <c r="F236">
-        <v>5.670452130674845</v>
+        <v>5.273234021006692</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6.229000297951918</v>
+        <v>5.132919862495727</v>
       </c>
       <c r="C237">
-        <v>5.046760447208166</v>
+        <v>5.238422516943854</v>
       </c>
       <c r="D237">
-        <v>5.821918022373603</v>
+        <v>5.272027901164976</v>
       </c>
       <c r="E237">
-        <v>5.14003982640162</v>
+        <v>5.071561728135038</v>
       </c>
       <c r="F237">
-        <v>5.630431273787264</v>
+        <v>5.232455815341011</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6.1954339368616</v>
+        <v>5.093756788770489</v>
       </c>
       <c r="C238">
-        <v>5.007292097500617</v>
+        <v>5.201230326167985</v>
       </c>
       <c r="D238">
-        <v>5.789854452688319</v>
+        <v>5.233151544125267</v>
       </c>
       <c r="E238">
-        <v>5.102127086963893</v>
+        <v>5.033084831332704</v>
       </c>
       <c r="F238">
-        <v>5.590410332526624</v>
+        <v>5.191668978599379</v>
       </c>
     </row>
   </sheetData>
